--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993329472832122</v>
+        <v>0.9933294728321219</v>
       </c>
       <c r="D2">
         <v>1.012449230273029</v>
@@ -453,28 +453,28 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988197648459882</v>
+        <v>0.9988197648459874</v>
       </c>
       <c r="D3">
         <v>1.016410610869898</v>
       </c>
       <c r="E3">
-        <v>1.005121113020091</v>
+        <v>1.00512111302009</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043533427805338</v>
+        <v>1.043533427805337</v>
       </c>
       <c r="J3">
-        <v>1.019342656053393</v>
+        <v>1.019342656053392</v>
       </c>
       <c r="K3">
-        <v>1.026837733989986</v>
+        <v>1.026837733989985</v>
       </c>
       <c r="L3">
-        <v>1.015688884930364</v>
+        <v>1.015688884930363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.028786613942899</v>
       </c>
       <c r="L4">
-        <v>1.017930695965629</v>
+        <v>1.017930695965628</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +517,28 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003720107718669</v>
+        <v>1.003720107718671</v>
       </c>
       <c r="D5">
-        <v>1.019947988408437</v>
+        <v>1.019947988408439</v>
       </c>
       <c r="E5">
-        <v>1.009091691814977</v>
+        <v>1.009091691814978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044991677512462</v>
+        <v>1.044991677512463</v>
       </c>
       <c r="J5">
-        <v>1.022576371937829</v>
+        <v>1.022576371937831</v>
       </c>
       <c r="K5">
-        <v>1.029592757566786</v>
+        <v>1.029592757566787</v>
       </c>
       <c r="L5">
-        <v>1.018859733104841</v>
+        <v>1.018859733104842</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -564,7 +564,7 @@
         <v>1.04506245146108</v>
       </c>
       <c r="J6">
-        <v>1.022734529397496</v>
+        <v>1.022734529397495</v>
       </c>
       <c r="K6">
         <v>1.029727353862464</v>
@@ -581,7 +581,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002303270693269</v>
+        <v>1.00230327069327</v>
       </c>
       <c r="D7">
         <v>1.018925105632484</v>
@@ -599,10 +599,10 @@
         <v>1.021642172325611</v>
       </c>
       <c r="K7">
-        <v>1.028797436797307</v>
+        <v>1.028797436797308</v>
       </c>
       <c r="L7">
-        <v>1.017943161859481</v>
+        <v>1.017943161859482</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,7 +613,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.995203789744621</v>
+        <v>0.9952037897446208</v>
       </c>
       <c r="D8">
         <v>1.013801323882013</v>
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819738418600388</v>
+        <v>0.9819738418600391</v>
       </c>
       <c r="D9">
         <v>1.004265570050112</v>
       </c>
       <c r="E9">
-        <v>0.9915469273703528</v>
+        <v>0.991546927370353</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>1.038358321314717</v>
       </c>
       <c r="J9">
-        <v>1.008179612332429</v>
+        <v>1.00817961233243</v>
       </c>
       <c r="K9">
-        <v>1.017289818385929</v>
+        <v>1.01728981838593</v>
       </c>
       <c r="L9">
         <v>1.004778654943522</v>
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9726043172875817</v>
+        <v>0.9726043172875819</v>
       </c>
       <c r="D10">
-        <v>0.9975268035708942</v>
+        <v>0.9975268035708941</v>
       </c>
       <c r="E10">
-        <v>0.9840460929962264</v>
+        <v>0.9840460929962265</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.035392275493589</v>
       </c>
       <c r="J10">
-        <v>1.0019486752141</v>
+        <v>1.001948675214101</v>
       </c>
       <c r="K10">
         <v>1.011940856384802</v>
       </c>
       <c r="L10">
-        <v>0.9987095011798074</v>
+        <v>0.9987095011798076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9684004505372728</v>
+        <v>0.9684004505372739</v>
       </c>
       <c r="D11">
-        <v>0.9945082020903057</v>
+        <v>0.994508202090307</v>
       </c>
       <c r="E11">
-        <v>0.9806918076139363</v>
+        <v>0.9806918076139371</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.034045021885174</v>
       </c>
       <c r="J11">
-        <v>0.9991495676901823</v>
+        <v>0.9991495676901831</v>
       </c>
       <c r="K11">
-        <v>1.009534434175312</v>
+        <v>1.009534434175313</v>
       </c>
       <c r="L11">
-        <v>0.9959872712862919</v>
+        <v>0.9959872712862929</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -756,7 +756,7 @@
         <v>1.033534643152583</v>
       </c>
       <c r="J12">
-        <v>0.9980936987877294</v>
+        <v>0.9980936987877295</v>
       </c>
       <c r="K12">
         <v>1.008626194888324</v>
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9671564458151474</v>
+        <v>0.9671564458151469</v>
       </c>
       <c r="D13">
-        <v>0.9936155831628405</v>
+        <v>0.9936155831628403</v>
       </c>
       <c r="E13">
-        <v>0.9797005267069521</v>
+        <v>0.9797005267069513</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.03364457974434</v>
       </c>
       <c r="J13">
-        <v>0.9983209339104963</v>
+        <v>0.9983209339104959</v>
       </c>
       <c r="K13">
-        <v>1.008821680372885</v>
+        <v>1.008821680372884</v>
       </c>
       <c r="L13">
-        <v>0.9951818663393075</v>
+        <v>0.9951818663393068</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9682699158370388</v>
+        <v>0.968269915837039</v>
       </c>
       <c r="D14">
-        <v>0.9944145245124855</v>
+        <v>0.9944145245124854</v>
       </c>
       <c r="E14">
-        <v>0.9805877632868131</v>
+        <v>0.9805877632868132</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.034003039784962</v>
       </c>
       <c r="J14">
-        <v>0.9990626247431638</v>
+        <v>0.999062624743164</v>
       </c>
       <c r="K14">
         <v>1.009459657345406</v>
       </c>
       <c r="L14">
-        <v>0.9959027556617747</v>
+        <v>0.9959027556617748</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.968952784236547</v>
+        <v>0.9689527842365466</v>
       </c>
       <c r="D15">
-        <v>0.9949046179603173</v>
+        <v>0.9949046179603169</v>
       </c>
       <c r="E15">
-        <v>0.9811321253521925</v>
+        <v>0.9811321253521924</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.034222565017761</v>
       </c>
       <c r="J15">
-        <v>0.9995174335887212</v>
+        <v>0.999517433588721</v>
       </c>
       <c r="K15">
         <v>1.009850803728305</v>
       </c>
       <c r="L15">
-        <v>0.99634489281586</v>
+        <v>0.9963448928158599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9728800918895836</v>
+        <v>0.9728800918895837</v>
       </c>
       <c r="D16">
-        <v>0.997724937637273</v>
+        <v>0.9977249376372731</v>
       </c>
       <c r="E16">
-        <v>0.9842663752656072</v>
+        <v>0.9842663752656075</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1.012098591963499</v>
       </c>
       <c r="L16">
-        <v>0.9988881046076983</v>
+        <v>0.9988881046076984</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.97530323395467</v>
+        <v>0.9753032339546694</v>
       </c>
       <c r="D17">
-        <v>0.9994664496104109</v>
+        <v>0.9994664496104105</v>
       </c>
       <c r="E17">
-        <v>0.9862032001414749</v>
+        <v>0.9862032001414744</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9767025598929808</v>
+        <v>0.9767025598929802</v>
       </c>
       <c r="D18">
-        <v>1.00047259964142</v>
+        <v>1.000472599641419</v>
       </c>
       <c r="E18">
-        <v>0.9873227311528381</v>
+        <v>0.9873227311528379</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1.036696219527514</v>
       </c>
       <c r="J18">
-        <v>1.004675557747411</v>
+        <v>1.00467555774741</v>
       </c>
       <c r="K18">
         <v>1.014283180383392</v>
       </c>
       <c r="L18">
-        <v>1.001363938617089</v>
+        <v>1.001363938617088</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771773552582709</v>
+        <v>0.9771773552582715</v>
       </c>
       <c r="D19">
         <v>1.000814062544571</v>
       </c>
       <c r="E19">
-        <v>0.9877027655739619</v>
+        <v>0.987702765573962</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>1.01455429091992</v>
       </c>
       <c r="L19">
-        <v>1.001671492278155</v>
+        <v>1.001671492278156</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,28 +997,28 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9750447179501941</v>
+        <v>0.975044717950193</v>
       </c>
       <c r="D20">
-        <v>0.999280606053188</v>
+        <v>0.999280606053187</v>
       </c>
       <c r="E20">
-        <v>0.9859964582131556</v>
+        <v>0.9859964582131545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036169918096453</v>
+        <v>1.036169918096452</v>
       </c>
       <c r="J20">
-        <v>1.003572713781846</v>
+        <v>1.003572713781844</v>
       </c>
       <c r="K20">
-        <v>1.013336116942165</v>
+        <v>1.013336116942164</v>
       </c>
       <c r="L20">
-        <v>1.000290094932738</v>
+        <v>1.000290094932737</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9679426915755414</v>
+        <v>0.9679426915755398</v>
       </c>
       <c r="D21">
-        <v>0.9941797081682908</v>
+        <v>0.9941797081682895</v>
       </c>
       <c r="E21">
-        <v>0.9803269741327595</v>
+        <v>0.9803269741327582</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033897761061429</v>
+        <v>1.033897761061428</v>
       </c>
       <c r="J21">
-        <v>0.9988446695062695</v>
+        <v>0.998844669506268</v>
       </c>
       <c r="K21">
-        <v>1.00927219316266</v>
+        <v>1.009272193162658</v>
       </c>
       <c r="L21">
-        <v>0.9956908956783987</v>
+        <v>0.9956908956783973</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1064,10 +1064,10 @@
         <v>0.9633398968960371</v>
       </c>
       <c r="D22">
-        <v>0.9908790031600905</v>
+        <v>0.9908790031600903</v>
       </c>
       <c r="E22">
-        <v>0.9766630657509691</v>
+        <v>0.9766630657509688</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1.006633340401515</v>
       </c>
       <c r="L22">
-        <v>0.9927114543195139</v>
+        <v>0.9927114543195137</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9657935138847925</v>
+        <v>0.9657935138847921</v>
       </c>
       <c r="D23">
-        <v>0.992637980494102</v>
+        <v>0.9926379804941019</v>
       </c>
       <c r="E23">
-        <v>0.9786151679760292</v>
+        <v>0.9786151679760284</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.033204973101777</v>
       </c>
       <c r="J23">
-        <v>0.99741293162344</v>
+        <v>0.9974129316234396</v>
       </c>
       <c r="K23">
-        <v>1.008040475114714</v>
+        <v>1.008040475114713</v>
       </c>
       <c r="L23">
-        <v>0.9942995581723263</v>
+        <v>0.9942995581723256</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,28 +1125,28 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751615735145599</v>
+        <v>0.9751615735145619</v>
       </c>
       <c r="D24">
-        <v>0.9993646104911097</v>
+        <v>0.9993646104911112</v>
       </c>
       <c r="E24">
-        <v>0.986089907390798</v>
+        <v>0.9860899073907999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036207068558686</v>
+        <v>1.036207068558687</v>
       </c>
       <c r="J24">
-        <v>1.003650460913813</v>
+        <v>1.003650460913815</v>
       </c>
       <c r="K24">
-        <v>1.013402893476711</v>
+        <v>1.013402893476712</v>
       </c>
       <c r="L24">
-        <v>1.000365784188464</v>
+        <v>1.000365784188466</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,7 +1157,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9854858129139016</v>
+        <v>0.9854858129139018</v>
       </c>
       <c r="D25">
         <v>1.006794861922731</v>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9933294728321219</v>
+        <v>0.993329472832122</v>
       </c>
       <c r="D2">
         <v>1.012449230273029</v>
@@ -453,28 +453,28 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988197648459874</v>
+        <v>0.9988197648459882</v>
       </c>
       <c r="D3">
         <v>1.016410610869898</v>
       </c>
       <c r="E3">
-        <v>1.00512111302009</v>
+        <v>1.005121113020091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043533427805337</v>
+        <v>1.043533427805338</v>
       </c>
       <c r="J3">
-        <v>1.019342656053392</v>
+        <v>1.019342656053393</v>
       </c>
       <c r="K3">
-        <v>1.026837733989985</v>
+        <v>1.026837733989986</v>
       </c>
       <c r="L3">
-        <v>1.015688884930363</v>
+        <v>1.015688884930364</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.028786613942899</v>
       </c>
       <c r="L4">
-        <v>1.017930695965628</v>
+        <v>1.017930695965629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +517,28 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003720107718671</v>
+        <v>1.003720107718669</v>
       </c>
       <c r="D5">
-        <v>1.019947988408439</v>
+        <v>1.019947988408437</v>
       </c>
       <c r="E5">
-        <v>1.009091691814978</v>
+        <v>1.009091691814977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044991677512463</v>
+        <v>1.044991677512462</v>
       </c>
       <c r="J5">
-        <v>1.022576371937831</v>
+        <v>1.022576371937829</v>
       </c>
       <c r="K5">
-        <v>1.029592757566787</v>
+        <v>1.029592757566786</v>
       </c>
       <c r="L5">
-        <v>1.018859733104842</v>
+        <v>1.018859733104841</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -564,7 +564,7 @@
         <v>1.04506245146108</v>
       </c>
       <c r="J6">
-        <v>1.022734529397495</v>
+        <v>1.022734529397496</v>
       </c>
       <c r="K6">
         <v>1.029727353862464</v>
@@ -581,7 +581,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00230327069327</v>
+        <v>1.002303270693269</v>
       </c>
       <c r="D7">
         <v>1.018925105632484</v>
@@ -599,10 +599,10 @@
         <v>1.021642172325611</v>
       </c>
       <c r="K7">
-        <v>1.028797436797308</v>
+        <v>1.028797436797307</v>
       </c>
       <c r="L7">
-        <v>1.017943161859482</v>
+        <v>1.017943161859481</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,7 +613,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952037897446208</v>
+        <v>0.995203789744621</v>
       </c>
       <c r="D8">
         <v>1.013801323882013</v>
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819738418600391</v>
+        <v>0.9819738418600388</v>
       </c>
       <c r="D9">
         <v>1.004265570050112</v>
       </c>
       <c r="E9">
-        <v>0.991546927370353</v>
+        <v>0.9915469273703528</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>1.038358321314717</v>
       </c>
       <c r="J9">
-        <v>1.00817961233243</v>
+        <v>1.008179612332429</v>
       </c>
       <c r="K9">
-        <v>1.01728981838593</v>
+        <v>1.017289818385929</v>
       </c>
       <c r="L9">
         <v>1.004778654943522</v>
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9726043172875819</v>
+        <v>0.9726043172875817</v>
       </c>
       <c r="D10">
-        <v>0.9975268035708941</v>
+        <v>0.9975268035708942</v>
       </c>
       <c r="E10">
-        <v>0.9840460929962265</v>
+        <v>0.9840460929962264</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.035392275493589</v>
       </c>
       <c r="J10">
-        <v>1.001948675214101</v>
+        <v>1.0019486752141</v>
       </c>
       <c r="K10">
         <v>1.011940856384802</v>
       </c>
       <c r="L10">
-        <v>0.9987095011798076</v>
+        <v>0.9987095011798074</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9684004505372739</v>
+        <v>0.9684004505372728</v>
       </c>
       <c r="D11">
-        <v>0.994508202090307</v>
+        <v>0.9945082020903057</v>
       </c>
       <c r="E11">
-        <v>0.9806918076139371</v>
+        <v>0.9806918076139363</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.034045021885174</v>
       </c>
       <c r="J11">
-        <v>0.9991495676901831</v>
+        <v>0.9991495676901823</v>
       </c>
       <c r="K11">
-        <v>1.009534434175313</v>
+        <v>1.009534434175312</v>
       </c>
       <c r="L11">
-        <v>0.9959872712862929</v>
+        <v>0.9959872712862919</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -756,7 +756,7 @@
         <v>1.033534643152583</v>
       </c>
       <c r="J12">
-        <v>0.9980936987877295</v>
+        <v>0.9980936987877294</v>
       </c>
       <c r="K12">
         <v>1.008626194888324</v>
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9671564458151469</v>
+        <v>0.9671564458151474</v>
       </c>
       <c r="D13">
-        <v>0.9936155831628403</v>
+        <v>0.9936155831628405</v>
       </c>
       <c r="E13">
-        <v>0.9797005267069513</v>
+        <v>0.9797005267069521</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.03364457974434</v>
       </c>
       <c r="J13">
-        <v>0.9983209339104959</v>
+        <v>0.9983209339104963</v>
       </c>
       <c r="K13">
-        <v>1.008821680372884</v>
+        <v>1.008821680372885</v>
       </c>
       <c r="L13">
-        <v>0.9951818663393068</v>
+        <v>0.9951818663393075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.968269915837039</v>
+        <v>0.9682699158370388</v>
       </c>
       <c r="D14">
-        <v>0.9944145245124854</v>
+        <v>0.9944145245124855</v>
       </c>
       <c r="E14">
-        <v>0.9805877632868132</v>
+        <v>0.9805877632868131</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.034003039784962</v>
       </c>
       <c r="J14">
-        <v>0.999062624743164</v>
+        <v>0.9990626247431638</v>
       </c>
       <c r="K14">
         <v>1.009459657345406</v>
       </c>
       <c r="L14">
-        <v>0.9959027556617748</v>
+        <v>0.9959027556617747</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9689527842365466</v>
+        <v>0.968952784236547</v>
       </c>
       <c r="D15">
-        <v>0.9949046179603169</v>
+        <v>0.9949046179603173</v>
       </c>
       <c r="E15">
-        <v>0.9811321253521924</v>
+        <v>0.9811321253521925</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.034222565017761</v>
       </c>
       <c r="J15">
-        <v>0.999517433588721</v>
+        <v>0.9995174335887212</v>
       </c>
       <c r="K15">
         <v>1.009850803728305</v>
       </c>
       <c r="L15">
-        <v>0.9963448928158599</v>
+        <v>0.99634489281586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9728800918895837</v>
+        <v>0.9728800918895836</v>
       </c>
       <c r="D16">
-        <v>0.9977249376372731</v>
+        <v>0.997724937637273</v>
       </c>
       <c r="E16">
-        <v>0.9842663752656075</v>
+        <v>0.9842663752656072</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1.012098591963499</v>
       </c>
       <c r="L16">
-        <v>0.9988881046076984</v>
+        <v>0.9988881046076983</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9753032339546694</v>
+        <v>0.97530323395467</v>
       </c>
       <c r="D17">
-        <v>0.9994664496104105</v>
+        <v>0.9994664496104109</v>
       </c>
       <c r="E17">
-        <v>0.9862032001414744</v>
+        <v>0.9862032001414749</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9767025598929802</v>
+        <v>0.9767025598929808</v>
       </c>
       <c r="D18">
-        <v>1.000472599641419</v>
+        <v>1.00047259964142</v>
       </c>
       <c r="E18">
-        <v>0.9873227311528379</v>
+        <v>0.9873227311528381</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1.036696219527514</v>
       </c>
       <c r="J18">
-        <v>1.00467555774741</v>
+        <v>1.004675557747411</v>
       </c>
       <c r="K18">
         <v>1.014283180383392</v>
       </c>
       <c r="L18">
-        <v>1.001363938617088</v>
+        <v>1.001363938617089</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771773552582715</v>
+        <v>0.9771773552582709</v>
       </c>
       <c r="D19">
         <v>1.000814062544571</v>
       </c>
       <c r="E19">
-        <v>0.987702765573962</v>
+        <v>0.9877027655739619</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>1.01455429091992</v>
       </c>
       <c r="L19">
-        <v>1.001671492278156</v>
+        <v>1.001671492278155</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,28 +997,28 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.975044717950193</v>
+        <v>0.9750447179501941</v>
       </c>
       <c r="D20">
-        <v>0.999280606053187</v>
+        <v>0.999280606053188</v>
       </c>
       <c r="E20">
-        <v>0.9859964582131545</v>
+        <v>0.9859964582131556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036169918096452</v>
+        <v>1.036169918096453</v>
       </c>
       <c r="J20">
-        <v>1.003572713781844</v>
+        <v>1.003572713781846</v>
       </c>
       <c r="K20">
-        <v>1.013336116942164</v>
+        <v>1.013336116942165</v>
       </c>
       <c r="L20">
-        <v>1.000290094932737</v>
+        <v>1.000290094932738</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9679426915755398</v>
+        <v>0.9679426915755414</v>
       </c>
       <c r="D21">
-        <v>0.9941797081682895</v>
+        <v>0.9941797081682908</v>
       </c>
       <c r="E21">
-        <v>0.9803269741327582</v>
+        <v>0.9803269741327595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033897761061428</v>
+        <v>1.033897761061429</v>
       </c>
       <c r="J21">
-        <v>0.998844669506268</v>
+        <v>0.9988446695062695</v>
       </c>
       <c r="K21">
-        <v>1.009272193162658</v>
+        <v>1.00927219316266</v>
       </c>
       <c r="L21">
-        <v>0.9956908956783973</v>
+        <v>0.9956908956783987</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1064,10 +1064,10 @@
         <v>0.9633398968960371</v>
       </c>
       <c r="D22">
-        <v>0.9908790031600903</v>
+        <v>0.9908790031600905</v>
       </c>
       <c r="E22">
-        <v>0.9766630657509688</v>
+        <v>0.9766630657509691</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1.006633340401515</v>
       </c>
       <c r="L22">
-        <v>0.9927114543195137</v>
+        <v>0.9927114543195139</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9657935138847921</v>
+        <v>0.9657935138847925</v>
       </c>
       <c r="D23">
-        <v>0.9926379804941019</v>
+        <v>0.992637980494102</v>
       </c>
       <c r="E23">
-        <v>0.9786151679760284</v>
+        <v>0.9786151679760292</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.033204973101777</v>
       </c>
       <c r="J23">
-        <v>0.9974129316234396</v>
+        <v>0.99741293162344</v>
       </c>
       <c r="K23">
-        <v>1.008040475114713</v>
+        <v>1.008040475114714</v>
       </c>
       <c r="L23">
-        <v>0.9942995581723256</v>
+        <v>0.9942995581723263</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,28 +1125,28 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751615735145619</v>
+        <v>0.9751615735145599</v>
       </c>
       <c r="D24">
-        <v>0.9993646104911112</v>
+        <v>0.9993646104911097</v>
       </c>
       <c r="E24">
-        <v>0.9860899073907999</v>
+        <v>0.986089907390798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036207068558687</v>
+        <v>1.036207068558686</v>
       </c>
       <c r="J24">
-        <v>1.003650460913815</v>
+        <v>1.003650460913813</v>
       </c>
       <c r="K24">
-        <v>1.013402893476712</v>
+        <v>1.013402893476711</v>
       </c>
       <c r="L24">
-        <v>1.000365784188466</v>
+        <v>1.000365784188464</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,7 +1157,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9854858129139018</v>
+        <v>0.9854858129139016</v>
       </c>
       <c r="D25">
         <v>1.006794861922731</v>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993329472832122</v>
+        <v>0.993329402125672</v>
       </c>
       <c r="D2">
-        <v>1.012449230273029</v>
+        <v>1.01244925501585</v>
       </c>
       <c r="E2">
-        <v>1.000684446533082</v>
+        <v>1.000684574126421</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041872384933428</v>
+        <v>1.041872395477842</v>
       </c>
       <c r="J2">
-        <v>1.015711545338261</v>
+        <v>1.015711476785965</v>
       </c>
       <c r="K2">
-        <v>1.02373780985344</v>
+        <v>1.023737834262134</v>
       </c>
       <c r="L2">
-        <v>1.012134254157323</v>
+        <v>1.012134379976151</v>
+      </c>
+      <c r="N2">
+        <v>1.013090784958852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988197648459882</v>
+        <v>0.9988176051109611</v>
       </c>
       <c r="D3">
-        <v>1.016410610869898</v>
+        <v>1.016409019863323</v>
       </c>
       <c r="E3">
-        <v>1.005121113020091</v>
+        <v>1.005119417487651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043533427805338</v>
+        <v>1.043532523863471</v>
       </c>
       <c r="J3">
-        <v>1.019342656053393</v>
+        <v>1.019340555384793</v>
       </c>
       <c r="K3">
-        <v>1.026837733989986</v>
+        <v>1.026836162530885</v>
       </c>
       <c r="L3">
-        <v>1.015688884930364</v>
+        <v>1.015687210817594</v>
+      </c>
+      <c r="N3">
+        <v>1.01554328534001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00228400291547</v>
+        <v>1.002280541901085</v>
       </c>
       <c r="D4">
-        <v>1.018911195878607</v>
+        <v>1.01890859598549</v>
       </c>
       <c r="E4">
-        <v>1.007927010702875</v>
+        <v>1.00792417727538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044566850260193</v>
+        <v>1.044565374117583</v>
       </c>
       <c r="J4">
-        <v>1.02162946356625</v>
+        <v>1.021626090540988</v>
       </c>
       <c r="K4">
-        <v>1.028786613942899</v>
+        <v>1.028784044005705</v>
       </c>
       <c r="L4">
-        <v>1.017930695965629</v>
+        <v>1.017927896072041</v>
+      </c>
+      <c r="N4">
+        <v>1.017087559851916</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003720107718669</v>
+        <v>1.003716110896008</v>
       </c>
       <c r="D5">
-        <v>1.019947988408437</v>
+        <v>1.019944972575141</v>
       </c>
       <c r="E5">
-        <v>1.009091691814977</v>
+        <v>1.0090883893781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044991677512462</v>
+        <v>1.044989965188364</v>
       </c>
       <c r="J5">
-        <v>1.022576371937829</v>
+        <v>1.022572473572444</v>
       </c>
       <c r="K5">
-        <v>1.029592757566786</v>
+        <v>1.029589775529258</v>
       </c>
       <c r="L5">
-        <v>1.018859733104841</v>
+        <v>1.018856468665041</v>
+      </c>
+      <c r="N5">
+        <v>1.01772693726511</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003960072755415</v>
+        <v>1.003955986605027</v>
       </c>
       <c r="D6">
-        <v>1.020121238400709</v>
+        <v>1.02011815319414</v>
       </c>
       <c r="E6">
-        <v>1.009286389527392</v>
+        <v>1.009283008873041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04506245146108</v>
+        <v>1.045060699729031</v>
       </c>
       <c r="J6">
-        <v>1.022734529397496</v>
+        <v>1.02273054336834</v>
       </c>
       <c r="K6">
-        <v>1.029727353862464</v>
+        <v>1.029724303066399</v>
       </c>
       <c r="L6">
-        <v>1.019014950372339</v>
+        <v>1.019011608429257</v>
+      </c>
+      <c r="N6">
+        <v>1.017833725297042</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002303270693269</v>
+        <v>1.00229980247623</v>
       </c>
       <c r="D7">
-        <v>1.018925105632484</v>
+        <v>1.018922500150066</v>
       </c>
       <c r="E7">
-        <v>1.007942631049022</v>
+        <v>1.007939791318625</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044572564273932</v>
+        <v>1.044571084958659</v>
       </c>
       <c r="J7">
-        <v>1.021642172325611</v>
+        <v>1.021638792243964</v>
       </c>
       <c r="K7">
-        <v>1.028797436797307</v>
+        <v>1.028794861324162</v>
       </c>
       <c r="L7">
-        <v>1.017943161859481</v>
+        <v>1.017940355725024</v>
+      </c>
+      <c r="N7">
+        <v>1.017096141409888</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.995203789744621</v>
+        <v>0.9952030020689849</v>
       </c>
       <c r="D8">
-        <v>1.013801323882013</v>
+        <v>1.01380079463636</v>
       </c>
       <c r="E8">
-        <v>1.002197669515787</v>
+        <v>1.002197171918331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042442487530672</v>
+        <v>1.042442184784351</v>
       </c>
       <c r="J8">
-        <v>1.016952040597406</v>
+        <v>1.016951276073995</v>
       </c>
       <c r="K8">
-        <v>1.024797537193472</v>
+        <v>1.02479701487426</v>
       </c>
       <c r="L8">
-        <v>1.013347954037582</v>
+        <v>1.013347463143292</v>
+      </c>
+      <c r="N8">
+        <v>1.01392868580054</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819738418600388</v>
+        <v>0.9819782056646059</v>
       </c>
       <c r="D9">
-        <v>1.004265570050112</v>
+        <v>1.004269008071893</v>
       </c>
       <c r="E9">
-        <v>0.9915469273703528</v>
+        <v>0.9915509089187476</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038358321314717</v>
+        <v>1.038360256546367</v>
       </c>
       <c r="J9">
-        <v>1.008179612332429</v>
+        <v>1.008183813970413</v>
       </c>
       <c r="K9">
-        <v>1.017289818385929</v>
+        <v>1.017293201234554</v>
       </c>
       <c r="L9">
-        <v>1.004778654943522</v>
+        <v>1.004782570468695</v>
+      </c>
+      <c r="N9">
+        <v>1.008002291967671</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9726043172875817</v>
+        <v>0.9726124688576208</v>
       </c>
       <c r="D10">
-        <v>0.9975268035708942</v>
+        <v>0.9975331383322158</v>
       </c>
       <c r="E10">
-        <v>0.9840460929962264</v>
+        <v>0.9840533474840897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035392275493589</v>
+        <v>1.035395837137392</v>
       </c>
       <c r="J10">
-        <v>1.0019486752141</v>
+        <v>1.001956476797702</v>
       </c>
       <c r="K10">
-        <v>1.011940856384802</v>
+        <v>1.011947076031926</v>
       </c>
       <c r="L10">
-        <v>0.9987095011798074</v>
+        <v>0.9987166190798241</v>
+      </c>
+      <c r="N10">
+        <v>1.003791743274645</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9684004505372728</v>
+        <v>0.9684103433665884</v>
       </c>
       <c r="D11">
-        <v>0.9945082020903057</v>
+        <v>0.9945158624789064</v>
       </c>
       <c r="E11">
-        <v>0.9806918076139363</v>
+        <v>0.9807005604446349</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034045021885174</v>
+        <v>1.034049325829953</v>
       </c>
       <c r="J11">
-        <v>0.9991495676901823</v>
+        <v>0.9991590094295234</v>
       </c>
       <c r="K11">
-        <v>1.009534434175312</v>
+        <v>1.00954194800602</v>
       </c>
       <c r="L11">
-        <v>0.9959872712862919</v>
+        <v>0.9959958503998093</v>
+      </c>
+      <c r="N11">
+        <v>1.001900040721122</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9668153391888106</v>
+        <v>0.9668258957006245</v>
       </c>
       <c r="D12">
-        <v>0.9933708797591176</v>
+        <v>0.9933790443926536</v>
       </c>
       <c r="E12">
-        <v>0.9794288219186661</v>
+        <v>0.9794381447744173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033534643152583</v>
+        <v>1.033539229141256</v>
       </c>
       <c r="J12">
-        <v>0.9980936987877294</v>
+        <v>0.998103763224922</v>
       </c>
       <c r="K12">
-        <v>1.008626194888324</v>
+        <v>1.008634200351874</v>
       </c>
       <c r="L12">
-        <v>0.9949610379427201</v>
+        <v>0.9949701721693424</v>
+      </c>
+      <c r="N12">
+        <v>1.001186433293881</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9671564458151474</v>
+        <v>0.9671668591701089</v>
       </c>
       <c r="D13">
-        <v>0.9936155831628405</v>
+        <v>0.9936236390782371</v>
       </c>
       <c r="E13">
-        <v>0.9797005267069521</v>
+        <v>0.9797097266582948</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03364457974434</v>
+        <v>1.033649104937131</v>
       </c>
       <c r="J13">
-        <v>0.9983209339104963</v>
+        <v>0.9983308641455547</v>
       </c>
       <c r="K13">
-        <v>1.008821680372885</v>
+        <v>1.008829579867719</v>
       </c>
       <c r="L13">
-        <v>0.9951818663393075</v>
+        <v>0.9951908809132171</v>
+      </c>
+      <c r="N13">
+        <v>1.001340010925826</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9682699158370388</v>
+        <v>0.968279863171099</v>
       </c>
       <c r="D14">
-        <v>0.9944145245124855</v>
+        <v>0.994422226333379</v>
       </c>
       <c r="E14">
-        <v>0.9805877632868131</v>
+        <v>0.9805965629531004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034003039784962</v>
+        <v>1.034007366910892</v>
       </c>
       <c r="J14">
-        <v>0.9990626247431638</v>
+        <v>0.9990721176723295</v>
       </c>
       <c r="K14">
-        <v>1.009459657345406</v>
+        <v>1.009467211585585</v>
       </c>
       <c r="L14">
-        <v>0.9959027556617747</v>
+        <v>0.9959113804019432</v>
+      </c>
+      <c r="N14">
+        <v>1.001841280967245</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.968952784236547</v>
+        <v>0.9689624467342219</v>
       </c>
       <c r="D15">
-        <v>0.9949046179603173</v>
+        <v>0.9949121032181568</v>
       </c>
       <c r="E15">
-        <v>0.9811321253521925</v>
+        <v>0.9811406802161889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034222565017761</v>
+        <v>1.034226770964963</v>
       </c>
       <c r="J15">
-        <v>0.9995174335887212</v>
+        <v>0.9995266589042912</v>
       </c>
       <c r="K15">
-        <v>1.009850803728305</v>
+        <v>1.009858146724916</v>
       </c>
       <c r="L15">
-        <v>0.99634489281586</v>
+        <v>0.9963532790403891</v>
+      </c>
+      <c r="N15">
+        <v>1.002148659147686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9728800918895836</v>
+        <v>0.9728881301694289</v>
       </c>
       <c r="D16">
-        <v>0.997724937637273</v>
+        <v>0.9977311860172531</v>
       </c>
       <c r="E16">
-        <v>0.9842663752656072</v>
+        <v>0.98427353212886</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035480321193922</v>
+        <v>1.035483834425215</v>
       </c>
       <c r="J16">
-        <v>1.002132232447207</v>
+        <v>1.002139926996234</v>
       </c>
       <c r="K16">
-        <v>1.012098591963499</v>
+        <v>1.012104727191564</v>
       </c>
       <c r="L16">
-        <v>0.9988881046076983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9988951271978139</v>
+      </c>
+      <c r="N16">
+        <v>1.003915791634044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.97530323395467</v>
+        <v>0.9753102816187128</v>
       </c>
       <c r="D17">
-        <v>0.9994664496104109</v>
+        <v>0.9994719419808988</v>
       </c>
       <c r="E17">
-        <v>0.9862032001414749</v>
+        <v>0.9862095026562692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036252094198298</v>
+        <v>1.036255183498421</v>
       </c>
       <c r="J17">
-        <v>1.003744709107525</v>
+        <v>1.003751466062666</v>
       </c>
       <c r="K17">
-        <v>1.013483840369484</v>
+        <v>1.013489236306221</v>
       </c>
       <c r="L17">
-        <v>1.000457540460683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.000463728411033</v>
+      </c>
+      <c r="N17">
+        <v>1.005005483623492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9767025598929808</v>
+        <v>0.9767090393788038</v>
       </c>
       <c r="D18">
-        <v>1.00047259964142</v>
+        <v>1.000477657842108</v>
       </c>
       <c r="E18">
-        <v>0.9873227311528381</v>
+        <v>0.9873285430745556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036696219527514</v>
+        <v>1.036699065182926</v>
       </c>
       <c r="J18">
-        <v>1.004675557747411</v>
+        <v>1.004681775577487</v>
       </c>
       <c r="K18">
-        <v>1.014283180383392</v>
+        <v>1.014288151380159</v>
       </c>
       <c r="L18">
-        <v>1.001363938617089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.001369646845641</v>
+      </c>
+      <c r="N18">
+        <v>1.005634519696028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771773552582709</v>
+        <v>0.9771836425953325</v>
       </c>
       <c r="D19">
-        <v>1.000814062544571</v>
+        <v>1.000818973825427</v>
       </c>
       <c r="E19">
-        <v>0.9877027655739619</v>
+        <v>0.987708411491494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036846645096138</v>
+        <v>1.036849408273096</v>
       </c>
       <c r="J19">
-        <v>1.00499133894537</v>
+        <v>1.004997374228095</v>
       </c>
       <c r="K19">
-        <v>1.01455429091992</v>
+        <v>1.014559118058567</v>
       </c>
       <c r="L19">
-        <v>1.001671492278155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.001677038107172</v>
+      </c>
+      <c r="N19">
+        <v>1.005847910422486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9750447179501941</v>
+        <v>0.9750518708901039</v>
       </c>
       <c r="D20">
-        <v>0.999280606053188</v>
+        <v>0.9992861788254751</v>
       </c>
       <c r="E20">
-        <v>0.9859964582131556</v>
+        <v>0.9860028515827282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036169918096453</v>
+        <v>1.03617305250108</v>
       </c>
       <c r="J20">
-        <v>1.003572713781846</v>
+        <v>1.003579570521</v>
       </c>
       <c r="K20">
-        <v>1.013336116942165</v>
+        <v>1.013341591541686</v>
       </c>
       <c r="L20">
-        <v>1.000290094932738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.000296371688804</v>
+      </c>
+      <c r="N20">
+        <v>1.004889253335171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9679426915755414</v>
+        <v>0.9679527756597385</v>
       </c>
       <c r="D21">
-        <v>0.9941797081682908</v>
+        <v>0.994187513924317</v>
       </c>
       <c r="E21">
-        <v>0.9803269741327595</v>
+        <v>0.9803358912899544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033897761061429</v>
+        <v>1.033902146333422</v>
       </c>
       <c r="J21">
-        <v>0.9988446695062695</v>
+        <v>0.9988542908284513</v>
       </c>
       <c r="K21">
-        <v>1.00927219316266</v>
+        <v>1.009279848761536</v>
       </c>
       <c r="L21">
-        <v>0.9956908956783987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.99569963486391</v>
+      </c>
+      <c r="N21">
+        <v>1.00169397710857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9633398968960371</v>
+        <v>0.963351922710545</v>
       </c>
       <c r="D22">
-        <v>0.9908790031600905</v>
+        <v>0.9908882820994251</v>
       </c>
       <c r="E22">
-        <v>0.9766630657509691</v>
+        <v>0.9766736484279246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032411326868152</v>
+        <v>1.032416535532979</v>
       </c>
       <c r="J22">
-        <v>0.9957779397096096</v>
+        <v>0.9957893779102678</v>
       </c>
       <c r="K22">
-        <v>1.006633340401515</v>
+        <v>1.006642431039492</v>
       </c>
       <c r="L22">
-        <v>0.9927114543195139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9927218138842749</v>
+      </c>
+      <c r="N22">
+        <v>0.9996212879397633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9657935138847925</v>
+        <v>0.965804500354619</v>
       </c>
       <c r="D23">
-        <v>0.992637980494102</v>
+        <v>0.9926464714933458</v>
       </c>
       <c r="E23">
-        <v>0.9786151679760292</v>
+        <v>0.9786248597958582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033204973101777</v>
+        <v>1.033209741548967</v>
       </c>
       <c r="J23">
-        <v>0.99741293162344</v>
+        <v>0.9974233987461462</v>
       </c>
       <c r="K23">
-        <v>1.008040475114714</v>
+        <v>1.008048798590975</v>
       </c>
       <c r="L23">
-        <v>0.9942995581723263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9943090514810436</v>
+      </c>
+      <c r="N23">
+        <v>1.000726331004345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751615735145599</v>
+        <v>0.9751686788552009</v>
       </c>
       <c r="D24">
-        <v>0.9993646104911097</v>
+        <v>0.9993701469123611</v>
       </c>
       <c r="E24">
-        <v>0.986089907390798</v>
+        <v>0.9860962596832025</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036207068558686</v>
+        <v>1.036210182571364</v>
       </c>
       <c r="J24">
-        <v>1.003650460913813</v>
+        <v>1.003657272540986</v>
       </c>
       <c r="K24">
-        <v>1.013402893476711</v>
+        <v>1.013408332512586</v>
       </c>
       <c r="L24">
-        <v>1.000365784188464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.000372020795165</v>
+      </c>
+      <c r="N24">
+        <v>1.004941793032356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9854858129139016</v>
+        <v>0.9854887879227004</v>
       </c>
       <c r="D25">
-        <v>1.006794861922731</v>
+        <v>1.006797233464383</v>
       </c>
       <c r="E25">
-        <v>0.9943673795865171</v>
+        <v>0.9943701566294403</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039455412856487</v>
+        <v>1.039456747718241</v>
       </c>
       <c r="J25">
-        <v>1.010511708601342</v>
+        <v>1.010514579319573</v>
       </c>
       <c r="K25">
-        <v>1.019288604271496</v>
+        <v>1.019290939629111</v>
       </c>
       <c r="L25">
-        <v>1.007053768598851</v>
+        <v>1.007056501904613</v>
+      </c>
+      <c r="N25">
+        <v>1.00957799470602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993329402125672</v>
+        <v>1.018864586307567</v>
       </c>
       <c r="D2">
-        <v>1.01244925501585</v>
+        <v>1.03450261273827</v>
       </c>
       <c r="E2">
-        <v>1.000684574126421</v>
+        <v>1.029118086652969</v>
+      </c>
+      <c r="F2">
+        <v>1.036923499180928</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041872395477842</v>
+        <v>1.05532118576595</v>
       </c>
       <c r="J2">
-        <v>1.015711476785965</v>
+        <v>1.040495337635237</v>
       </c>
       <c r="K2">
-        <v>1.023737834262134</v>
+        <v>1.045501320753845</v>
       </c>
       <c r="L2">
-        <v>1.012134379976151</v>
+        <v>1.040186134399961</v>
+      </c>
+      <c r="M2">
+        <v>1.047891325123318</v>
       </c>
       <c r="N2">
-        <v>1.013090784958852</v>
+        <v>1.041972960361163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988176051109611</v>
+        <v>1.027333386881361</v>
       </c>
       <c r="D3">
-        <v>1.016409019863323</v>
+        <v>1.04116281222791</v>
       </c>
       <c r="E3">
-        <v>1.005119417487651</v>
+        <v>1.03669061776831</v>
+      </c>
+      <c r="F3">
+        <v>1.044969061270294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043532523863471</v>
+        <v>1.058681915492492</v>
       </c>
       <c r="J3">
-        <v>1.019340555384793</v>
+        <v>1.047105669692859</v>
       </c>
       <c r="K3">
-        <v>1.026836162530885</v>
+        <v>1.051294764043472</v>
       </c>
       <c r="L3">
-        <v>1.015687210817594</v>
+        <v>1.046874609786764</v>
+      </c>
+      <c r="M3">
+        <v>1.055057155286172</v>
       </c>
       <c r="N3">
-        <v>1.01554328534001</v>
+        <v>1.048592679848522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002280541901085</v>
+        <v>1.032626700419346</v>
       </c>
       <c r="D4">
-        <v>1.01890859598549</v>
+        <v>1.045327659867556</v>
       </c>
       <c r="E4">
-        <v>1.00792417727538</v>
+        <v>1.041425460417968</v>
+      </c>
+      <c r="F4">
+        <v>1.050003741472963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044565374117583</v>
+        <v>1.06076786456624</v>
       </c>
       <c r="J4">
-        <v>1.021626090540988</v>
+        <v>1.051231096040553</v>
       </c>
       <c r="K4">
-        <v>1.028784044005705</v>
+        <v>1.054908148796287</v>
       </c>
       <c r="L4">
-        <v>1.017927896072041</v>
+        <v>1.051048359289337</v>
+      </c>
+      <c r="M4">
+        <v>1.059533918392808</v>
       </c>
       <c r="N4">
-        <v>1.017087559851916</v>
+        <v>1.052723964774823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003716110896008</v>
+        <v>1.034810179437446</v>
       </c>
       <c r="D5">
-        <v>1.019944972575141</v>
+        <v>1.047046007389855</v>
       </c>
       <c r="E5">
-        <v>1.0090883893781</v>
+        <v>1.043378906379211</v>
+      </c>
+      <c r="F5">
+        <v>1.052081867338747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044989965188364</v>
+        <v>1.061624741879229</v>
       </c>
       <c r="J5">
-        <v>1.022572473572444</v>
+        <v>1.05293125784789</v>
       </c>
       <c r="K5">
-        <v>1.029589775529258</v>
+        <v>1.056396728664526</v>
       </c>
       <c r="L5">
-        <v>1.018856468665041</v>
+        <v>1.052768326640243</v>
+      </c>
+      <c r="M5">
+        <v>1.061379981876641</v>
       </c>
       <c r="N5">
-        <v>1.01772693726511</v>
+        <v>1.054426541006937</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003955986605027</v>
+        <v>1.035174419533764</v>
       </c>
       <c r="D6">
-        <v>1.02011815319414</v>
+        <v>1.047332673770489</v>
       </c>
       <c r="E6">
-        <v>1.009283008873041</v>
+        <v>1.043704790682504</v>
+      </c>
+      <c r="F6">
+        <v>1.052428608868162</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045060699729031</v>
+        <v>1.061767471244813</v>
       </c>
       <c r="J6">
-        <v>1.02273054336834</v>
+        <v>1.053214778869706</v>
       </c>
       <c r="K6">
-        <v>1.029724303066399</v>
+        <v>1.056644932349611</v>
       </c>
       <c r="L6">
-        <v>1.019011608429257</v>
+        <v>1.053055143968688</v>
+      </c>
+      <c r="M6">
+        <v>1.061687898716507</v>
       </c>
       <c r="N6">
-        <v>1.017833725297042</v>
+        <v>1.054710464661125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00229980247623</v>
+        <v>1.032656036994486</v>
       </c>
       <c r="D7">
-        <v>1.018922500150066</v>
+        <v>1.045350745803293</v>
       </c>
       <c r="E7">
-        <v>1.007939791318625</v>
+        <v>1.041451705111965</v>
+      </c>
+      <c r="F7">
+        <v>1.050031657382085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044571084958659</v>
+        <v>1.060779391542729</v>
       </c>
       <c r="J7">
-        <v>1.021638792243964</v>
+        <v>1.051253945192542</v>
       </c>
       <c r="K7">
-        <v>1.028794861324162</v>
+        <v>1.054928156667676</v>
       </c>
       <c r="L7">
-        <v>1.017940355725024</v>
+        <v>1.051071475051848</v>
+      </c>
+      <c r="M7">
+        <v>1.059558723987572</v>
       </c>
       <c r="N7">
-        <v>1.017096141409888</v>
+        <v>1.052746846375229</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952030020689849</v>
+        <v>1.021767084775297</v>
       </c>
       <c r="D8">
-        <v>1.01380079463636</v>
+        <v>1.036784758826891</v>
       </c>
       <c r="E8">
-        <v>1.002197171918331</v>
+        <v>1.031712989596519</v>
+      </c>
+      <c r="F8">
+        <v>1.039679636403794</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042442184784351</v>
+        <v>1.056476062025171</v>
       </c>
       <c r="J8">
-        <v>1.016951276073995</v>
+        <v>1.042762175675748</v>
       </c>
       <c r="K8">
-        <v>1.02479701487426</v>
+        <v>1.047488485428514</v>
       </c>
       <c r="L8">
-        <v>1.013347463143292</v>
+        <v>1.042479862186823</v>
+      </c>
+      <c r="M8">
+        <v>1.05034766399896</v>
       </c>
       <c r="N8">
-        <v>1.01392868580054</v>
+        <v>1.044243017571701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819782056646059</v>
+        <v>1.00100622161215</v>
       </c>
       <c r="D9">
-        <v>1.004269008071893</v>
+        <v>1.020475256660901</v>
       </c>
       <c r="E9">
-        <v>0.9915509089187476</v>
+        <v>1.013163704394409</v>
+      </c>
+      <c r="F9">
+        <v>1.019995531549822</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038360256546367</v>
+        <v>1.04815442449575</v>
       </c>
       <c r="J9">
-        <v>1.008183813970413</v>
+        <v>1.026523497568527</v>
       </c>
       <c r="K9">
-        <v>1.017293201234554</v>
+        <v>1.033244647555437</v>
       </c>
       <c r="L9">
-        <v>1.004782570468695</v>
+        <v>1.026046759894544</v>
+      </c>
+      <c r="M9">
+        <v>1.032772316422094</v>
       </c>
       <c r="N9">
-        <v>1.008002291967671</v>
+        <v>1.027981278678965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9726124688576208</v>
+        <v>0.9858741046971187</v>
       </c>
       <c r="D10">
-        <v>0.9975331383322158</v>
+        <v>1.008613021133385</v>
       </c>
       <c r="E10">
-        <v>0.9840533474840897</v>
+        <v>0.9996634278086068</v>
+      </c>
+      <c r="F10">
+        <v>1.00569218822192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035395837137392</v>
+        <v>1.042013771032314</v>
       </c>
       <c r="J10">
-        <v>1.001956476797702</v>
+        <v>1.014659605240352</v>
       </c>
       <c r="K10">
-        <v>1.011947076031926</v>
+        <v>1.022828486890353</v>
       </c>
       <c r="L10">
-        <v>0.9987166190798241</v>
+        <v>1.014038761830436</v>
+      </c>
+      <c r="M10">
+        <v>1.019959423424892</v>
       </c>
       <c r="N10">
-        <v>1.003791743274645</v>
+        <v>1.016100538262876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9684103433665884</v>
+        <v>0.9789513957277841</v>
       </c>
       <c r="D11">
-        <v>0.9945158624789064</v>
+        <v>1.003194950367821</v>
       </c>
       <c r="E11">
-        <v>0.9807005604446349</v>
+        <v>0.9934939430123185</v>
+      </c>
+      <c r="F11">
+        <v>0.9991611578367644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034049325829953</v>
+        <v>1.039187909301511</v>
       </c>
       <c r="J11">
-        <v>0.9991590094295234</v>
+        <v>1.00922681655569</v>
       </c>
       <c r="K11">
-        <v>1.00954194800602</v>
+        <v>1.018056865080231</v>
       </c>
       <c r="L11">
-        <v>0.9959958503998093</v>
+        <v>1.008539605944623</v>
+      </c>
+      <c r="M11">
+        <v>1.014098910849234</v>
       </c>
       <c r="N11">
-        <v>1.001900040721122</v>
+        <v>1.010660034395133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9668258957006245</v>
+        <v>0.9763177746293193</v>
       </c>
       <c r="D12">
-        <v>0.9933790443926536</v>
+        <v>1.001135318656318</v>
       </c>
       <c r="E12">
-        <v>0.9794381447744173</v>
+        <v>0.9911480747074067</v>
+      </c>
+      <c r="F12">
+        <v>0.9966786355440569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033539229141256</v>
+        <v>1.038110492581419</v>
       </c>
       <c r="J12">
-        <v>0.998103763224922</v>
+        <v>1.007159361832918</v>
       </c>
       <c r="K12">
-        <v>1.008634200351874</v>
+        <v>1.016240800028057</v>
       </c>
       <c r="L12">
-        <v>0.9949701721693424</v>
+        <v>1.006446851560734</v>
+      </c>
+      <c r="M12">
+        <v>1.011869745495982</v>
       </c>
       <c r="N12">
-        <v>1.001186433293881</v>
+        <v>1.008589643649514</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9671668591701089</v>
+        <v>0.9768856285182183</v>
       </c>
       <c r="D13">
-        <v>0.9936236390782371</v>
+        <v>1.001579334807372</v>
       </c>
       <c r="E13">
-        <v>0.9797097266582948</v>
+        <v>0.9916538264421851</v>
+      </c>
+      <c r="F13">
+        <v>0.9972138119110787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033649104937131</v>
+        <v>1.038342906662805</v>
       </c>
       <c r="J13">
-        <v>0.9983308641455547</v>
+        <v>1.007605167244409</v>
       </c>
       <c r="K13">
-        <v>1.008829579867719</v>
+        <v>1.016632407232951</v>
       </c>
       <c r="L13">
-        <v>0.9951908809132171</v>
+        <v>1.006898114054383</v>
+      </c>
+      <c r="M13">
+        <v>1.012350372205237</v>
       </c>
       <c r="N13">
-        <v>1.001340010925826</v>
+        <v>1.009036082155824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.968279863171099</v>
+        <v>0.9787350109963302</v>
       </c>
       <c r="D14">
-        <v>0.994422226333379</v>
+        <v>1.003025692423564</v>
       </c>
       <c r="E14">
-        <v>0.9805965629531004</v>
+        <v>0.9933011751716996</v>
+      </c>
+      <c r="F14">
+        <v>0.9989571440936199</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034007366910892</v>
+        <v>1.039099433258587</v>
       </c>
       <c r="J14">
-        <v>0.9990721176723295</v>
+        <v>1.009056961654192</v>
       </c>
       <c r="K14">
-        <v>1.009467211585585</v>
+        <v>1.017907667587268</v>
       </c>
       <c r="L14">
-        <v>0.9959113804019432</v>
+        <v>1.008367673304063</v>
+      </c>
+      <c r="M14">
+        <v>1.013915748701919</v>
       </c>
       <c r="N14">
-        <v>1.001841280967245</v>
+        <v>1.010489938280192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9689624467342219</v>
+        <v>0.9798660166095379</v>
       </c>
       <c r="D15">
-        <v>0.9949121032181568</v>
+        <v>1.003910440078555</v>
       </c>
       <c r="E15">
-        <v>0.9811406802161889</v>
+        <v>0.9943087893802582</v>
+      </c>
+      <c r="F15">
+        <v>1.000023574839135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034226770964963</v>
+        <v>1.039561787018068</v>
       </c>
       <c r="J15">
-        <v>0.9995266589042912</v>
+        <v>1.009944738523974</v>
       </c>
       <c r="K15">
-        <v>1.009858146724916</v>
+        <v>1.018687466300465</v>
       </c>
       <c r="L15">
-        <v>0.9963532790403891</v>
+        <v>1.009266308168543</v>
+      </c>
+      <c r="M15">
+        <v>1.014873121454049</v>
       </c>
       <c r="N15">
-        <v>1.002148659147686</v>
+        <v>1.011378975894959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9728881301694289</v>
+        <v>0.9863252018462801</v>
       </c>
       <c r="D16">
-        <v>0.9977311860172531</v>
+        <v>1.008966274190024</v>
       </c>
       <c r="E16">
-        <v>0.98427353212886</v>
+        <v>1.000065596941298</v>
+      </c>
+      <c r="F16">
+        <v>1.006118037692356</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035483834425215</v>
+        <v>1.042197577793196</v>
       </c>
       <c r="J16">
-        <v>1.002139926996234</v>
+        <v>1.015013519576567</v>
       </c>
       <c r="K16">
-        <v>1.012104727191564</v>
+        <v>1.023139297336733</v>
       </c>
       <c r="L16">
-        <v>0.9988951271978139</v>
+        <v>1.014396992853414</v>
+      </c>
+      <c r="M16">
+        <v>1.020341344974847</v>
       </c>
       <c r="N16">
-        <v>1.003915791634044</v>
+        <v>1.016454955198043</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9753102816187128</v>
+        <v>0.9902734028899376</v>
       </c>
       <c r="D17">
-        <v>0.9994719419808988</v>
+        <v>1.012059106409866</v>
       </c>
       <c r="E17">
-        <v>0.9862095026562692</v>
+        <v>1.003586328356282</v>
+      </c>
+      <c r="F17">
+        <v>1.009846686682201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036255183498421</v>
+        <v>1.043804486099299</v>
       </c>
       <c r="J17">
-        <v>1.003751466062666</v>
+        <v>1.018110560394803</v>
       </c>
       <c r="K17">
-        <v>1.013489236306221</v>
+        <v>1.025858948716114</v>
       </c>
       <c r="L17">
-        <v>1.000463728411033</v>
+        <v>1.01753176709359</v>
+      </c>
+      <c r="M17">
+        <v>1.023684242768624</v>
       </c>
       <c r="N17">
-        <v>1.005005483623492</v>
+        <v>1.019556394169477</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9767090393788038</v>
+        <v>0.9925410801316814</v>
       </c>
       <c r="D18">
-        <v>1.000477657842108</v>
+        <v>1.01383629127178</v>
       </c>
       <c r="E18">
-        <v>0.9873285430745556</v>
+        <v>1.005609094903384</v>
+      </c>
+      <c r="F18">
+        <v>1.011989416863952</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036699065182926</v>
+        <v>1.044725866310159</v>
       </c>
       <c r="J18">
-        <v>1.004681775577487</v>
+        <v>1.019888868534441</v>
       </c>
       <c r="K18">
-        <v>1.014288151380159</v>
+        <v>1.02742039112893</v>
       </c>
       <c r="L18">
-        <v>1.001369646845641</v>
+        <v>1.019331705402293</v>
+      </c>
+      <c r="M18">
+        <v>1.025604357494792</v>
       </c>
       <c r="N18">
-        <v>1.005634519696028</v>
+        <v>1.021337227710648</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9771836425953325</v>
+        <v>0.9933085041247245</v>
       </c>
       <c r="D19">
-        <v>1.000818973825427</v>
+        <v>1.014437851128789</v>
       </c>
       <c r="E19">
-        <v>0.987708411491494</v>
+        <v>1.006293734635646</v>
+      </c>
+      <c r="F19">
+        <v>1.012714746597032</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036849408273096</v>
+        <v>1.045037410542755</v>
       </c>
       <c r="J19">
-        <v>1.004997374228095</v>
+        <v>1.02049059248913</v>
       </c>
       <c r="K19">
-        <v>1.014559118058567</v>
+        <v>1.027948704233124</v>
       </c>
       <c r="L19">
-        <v>1.001677038107172</v>
+        <v>1.019940741855845</v>
+      </c>
+      <c r="M19">
+        <v>1.026254171519344</v>
       </c>
       <c r="N19">
-        <v>1.005847910422486</v>
+        <v>1.021939806182371</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9750518708901039</v>
+        <v>0.9898534875163665</v>
       </c>
       <c r="D20">
-        <v>0.9992861788254751</v>
+        <v>1.011730080300007</v>
       </c>
       <c r="E20">
-        <v>0.9860028515827282</v>
+        <v>1.003211812281058</v>
+      </c>
+      <c r="F20">
+        <v>1.009450000547282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03617305250108</v>
+        <v>1.043633742924075</v>
       </c>
       <c r="J20">
-        <v>1.003579570521</v>
+        <v>1.017781222147177</v>
       </c>
       <c r="K20">
-        <v>1.013341591541686</v>
+        <v>1.025569759313824</v>
       </c>
       <c r="L20">
-        <v>1.000296371688804</v>
+        <v>1.017198419972823</v>
+      </c>
+      <c r="M20">
+        <v>1.023328693737824</v>
       </c>
       <c r="N20">
-        <v>1.004889253335171</v>
+        <v>1.019226588223764</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9679527756597385</v>
+        <v>0.9781921898421847</v>
       </c>
       <c r="D21">
-        <v>0.994187513924317</v>
+        <v>1.002601119474148</v>
       </c>
       <c r="E21">
-        <v>0.9803358912899544</v>
+        <v>0.9928176192085516</v>
+      </c>
+      <c r="F21">
+        <v>0.9984453910676829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033902146333422</v>
+        <v>1.038877445342422</v>
       </c>
       <c r="J21">
-        <v>0.9988542908284513</v>
+        <v>1.008630855012977</v>
       </c>
       <c r="K21">
-        <v>1.009279848761536</v>
+        <v>1.01753337984928</v>
       </c>
       <c r="L21">
-        <v>0.99569963486391</v>
+        <v>1.007936353692947</v>
+      </c>
+      <c r="M21">
+        <v>1.01345627596907</v>
       </c>
       <c r="N21">
-        <v>1.00169397710857</v>
+        <v>1.010063226518672</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.963351922710545</v>
+        <v>0.9704961686831294</v>
       </c>
       <c r="D22">
-        <v>0.9908882820994251</v>
+        <v>0.9965857603299668</v>
       </c>
       <c r="E22">
-        <v>0.9766736484279246</v>
+        <v>0.9859650167094677</v>
+      </c>
+      <c r="F22">
+        <v>0.991195163562834</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032416535532979</v>
+        <v>1.035724647249662</v>
       </c>
       <c r="J22">
-        <v>0.9957893779102678</v>
+        <v>1.002588242713183</v>
       </c>
       <c r="K22">
-        <v>1.006642431039492</v>
+        <v>1.012225158763236</v>
       </c>
       <c r="L22">
-        <v>0.9927218138842749</v>
+        <v>1.001819732603079</v>
+      </c>
+      <c r="M22">
+        <v>1.006943087447293</v>
       </c>
       <c r="N22">
-        <v>0.9996212879397633</v>
+        <v>1.004012033016314</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.965804500354619</v>
+        <v>0.9746129874488247</v>
       </c>
       <c r="D23">
-        <v>0.9926464714933458</v>
+        <v>0.9998025658412163</v>
       </c>
       <c r="E23">
-        <v>0.9786248597958582</v>
+        <v>0.9896299213150415</v>
+      </c>
+      <c r="F23">
+        <v>0.9950722761288566</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033209741548967</v>
+        <v>1.037412412409658</v>
       </c>
       <c r="J23">
-        <v>0.9974233987461462</v>
+        <v>1.005820900650023</v>
       </c>
       <c r="K23">
-        <v>1.008048798590975</v>
+        <v>1.015065032747835</v>
       </c>
       <c r="L23">
-        <v>0.9943090514810436</v>
+        <v>1.00509200117865</v>
+      </c>
+      <c r="M23">
+        <v>1.010426897019</v>
       </c>
       <c r="N23">
-        <v>1.000726331004345</v>
+        <v>1.007249281698215</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751686788552009</v>
+        <v>0.9900433376220972</v>
       </c>
       <c r="D24">
-        <v>0.9993701469123611</v>
+        <v>1.01187883553902</v>
       </c>
       <c r="E24">
-        <v>0.9860962596832025</v>
+        <v>1.003381134794123</v>
+      </c>
+      <c r="F24">
+        <v>1.009629344787035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036210182571364</v>
+        <v>1.043710943359834</v>
       </c>
       <c r="J24">
-        <v>1.003657272540986</v>
+        <v>1.01793012252394</v>
       </c>
       <c r="K24">
-        <v>1.013408332512586</v>
+        <v>1.02570050813176</v>
       </c>
       <c r="L24">
-        <v>1.000372020795165</v>
+        <v>1.017349132954424</v>
+      </c>
+      <c r="M24">
+        <v>1.023489442553503</v>
       </c>
       <c r="N24">
-        <v>1.004941793032356</v>
+        <v>1.019375700056141</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9854887879227004</v>
+        <v>1.006581913113089</v>
       </c>
       <c r="D25">
-        <v>1.006797233464383</v>
+        <v>1.02485194640029</v>
       </c>
       <c r="E25">
-        <v>0.9943701566294403</v>
+        <v>1.018142642557314</v>
+      </c>
+      <c r="F25">
+        <v>1.025275217455949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039456747718241</v>
+        <v>1.05040240323765</v>
       </c>
       <c r="J25">
-        <v>1.010514579319573</v>
+        <v>1.030889781959412</v>
       </c>
       <c r="K25">
-        <v>1.019290939629111</v>
+        <v>1.037076339585369</v>
       </c>
       <c r="L25">
-        <v>1.007056501904613</v>
+        <v>1.030465697543967</v>
+      </c>
+      <c r="M25">
+        <v>1.037493441272733</v>
       </c>
       <c r="N25">
-        <v>1.00957799470602</v>
+        <v>1.032353763694505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018864586307567</v>
+        <v>1.002899429936862</v>
       </c>
       <c r="D2">
-        <v>1.03450261273827</v>
+        <v>1.025080968524963</v>
       </c>
       <c r="E2">
-        <v>1.029118086652969</v>
+        <v>1.008165873410668</v>
       </c>
       <c r="F2">
-        <v>1.036923499180928</v>
+        <v>1.031622208337091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05532118576595</v>
+        <v>1.050537343410335</v>
       </c>
       <c r="J2">
-        <v>1.040495337635237</v>
+        <v>1.024993764049133</v>
       </c>
       <c r="K2">
-        <v>1.045501320753845</v>
+        <v>1.036201603269465</v>
       </c>
       <c r="L2">
-        <v>1.040186134399961</v>
+        <v>1.019512604928443</v>
       </c>
       <c r="M2">
-        <v>1.047891325123318</v>
+        <v>1.042657896414062</v>
       </c>
       <c r="N2">
-        <v>1.041972960361163</v>
+        <v>1.026449372762511</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027333386881361</v>
+        <v>1.010636307921862</v>
       </c>
       <c r="D3">
-        <v>1.04116281222791</v>
+        <v>1.030954447400222</v>
       </c>
       <c r="E3">
-        <v>1.03669061776831</v>
+        <v>1.014652131752345</v>
       </c>
       <c r="F3">
-        <v>1.044969061270294</v>
+        <v>1.038039558288293</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058681915492492</v>
+        <v>1.053181641478435</v>
       </c>
       <c r="J3">
-        <v>1.047105669692859</v>
+        <v>1.030841157082597</v>
       </c>
       <c r="K3">
-        <v>1.051294764043472</v>
+        <v>1.04120600649941</v>
       </c>
       <c r="L3">
-        <v>1.046874609786764</v>
+        <v>1.025100906511588</v>
       </c>
       <c r="M3">
-        <v>1.055057155286172</v>
+        <v>1.048207795101818</v>
       </c>
       <c r="N3">
-        <v>1.048592679848522</v>
+        <v>1.032305069764787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032626700419346</v>
+        <v>1.015489745015561</v>
       </c>
       <c r="D4">
-        <v>1.045327659867556</v>
+        <v>1.03464137547776</v>
       </c>
       <c r="E4">
-        <v>1.041425460417968</v>
+        <v>1.018726596411558</v>
       </c>
       <c r="F4">
-        <v>1.050003741472963</v>
+        <v>1.042071562520159</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06076786456624</v>
+        <v>1.05482572837826</v>
       </c>
       <c r="J4">
-        <v>1.051231096040553</v>
+        <v>1.034505352840605</v>
       </c>
       <c r="K4">
-        <v>1.054908148796287</v>
+        <v>1.044338941534782</v>
       </c>
       <c r="L4">
-        <v>1.051048359289337</v>
+        <v>1.028604141897058</v>
       </c>
       <c r="M4">
-        <v>1.059533918392808</v>
+        <v>1.051687412485604</v>
       </c>
       <c r="N4">
-        <v>1.052723964774823</v>
+        <v>1.035974469101061</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034810179437446</v>
+        <v>1.017495637908933</v>
       </c>
       <c r="D5">
-        <v>1.047046007389855</v>
+        <v>1.036165610021126</v>
       </c>
       <c r="E5">
-        <v>1.043378906379211</v>
+        <v>1.02041177876647</v>
       </c>
       <c r="F5">
-        <v>1.052081867338747</v>
+        <v>1.043739335575702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061624741879229</v>
+        <v>1.055501609819568</v>
       </c>
       <c r="J5">
-        <v>1.05293125784789</v>
+        <v>1.036018718190359</v>
       </c>
       <c r="K5">
-        <v>1.056396728664526</v>
+        <v>1.045632131930343</v>
       </c>
       <c r="L5">
-        <v>1.052768326640243</v>
+        <v>1.030051353564639</v>
       </c>
       <c r="M5">
-        <v>1.061379981876641</v>
+        <v>1.053124937478639</v>
       </c>
       <c r="N5">
-        <v>1.054426541006937</v>
+        <v>1.037489983603197</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035174419533764</v>
+        <v>1.01783047117894</v>
       </c>
       <c r="D6">
-        <v>1.047332673770489</v>
+        <v>1.036420065550509</v>
       </c>
       <c r="E6">
-        <v>1.043704790682504</v>
+        <v>1.020693147288121</v>
       </c>
       <c r="F6">
-        <v>1.052428608868162</v>
+        <v>1.044017805004753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061767471244813</v>
+        <v>1.055614216747671</v>
       </c>
       <c r="J6">
-        <v>1.053214778869706</v>
+        <v>1.036271274177167</v>
       </c>
       <c r="K6">
-        <v>1.056644932349611</v>
+        <v>1.04584789884289</v>
       </c>
       <c r="L6">
-        <v>1.053055143968688</v>
+        <v>1.030292888449671</v>
       </c>
       <c r="M6">
-        <v>1.061687898716507</v>
+        <v>1.053364858713489</v>
       </c>
       <c r="N6">
-        <v>1.054710464661125</v>
+        <v>1.037742898248475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032656036994486</v>
+        <v>1.015516680744614</v>
       </c>
       <c r="D7">
-        <v>1.045350745803293</v>
+        <v>1.034661841730026</v>
       </c>
       <c r="E7">
-        <v>1.041451705111965</v>
+        <v>1.018749220786713</v>
       </c>
       <c r="F7">
-        <v>1.050031657382085</v>
+        <v>1.042093952623368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060779391542729</v>
+        <v>1.054834818702131</v>
       </c>
       <c r="J7">
-        <v>1.051253945192542</v>
+        <v>1.034525678905126</v>
       </c>
       <c r="K7">
-        <v>1.054928156667676</v>
+        <v>1.044356313461591</v>
       </c>
       <c r="L7">
-        <v>1.051071475051848</v>
+        <v>1.028623578173224</v>
       </c>
       <c r="M7">
-        <v>1.059558723987572</v>
+        <v>1.051706718440939</v>
       </c>
       <c r="N7">
-        <v>1.052746846375229</v>
+        <v>1.035994824030925</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021767084775297</v>
+        <v>1.00554711326145</v>
       </c>
       <c r="D8">
-        <v>1.036784758826891</v>
+        <v>1.027090372152515</v>
       </c>
       <c r="E8">
-        <v>1.031712989596519</v>
+        <v>1.010384337308036</v>
       </c>
       <c r="F8">
-        <v>1.039679636403794</v>
+        <v>1.033816900269693</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056476062025171</v>
+        <v>1.051445322109198</v>
       </c>
       <c r="J8">
-        <v>1.042762175675748</v>
+        <v>1.026995620162018</v>
       </c>
       <c r="K8">
-        <v>1.047488485428514</v>
+        <v>1.037915476597151</v>
       </c>
       <c r="L8">
-        <v>1.042479862186823</v>
+        <v>1.021425459669837</v>
       </c>
       <c r="M8">
-        <v>1.05034766399896</v>
+        <v>1.044557484451486</v>
       </c>
       <c r="N8">
-        <v>1.044243017571701</v>
+        <v>1.028454071740691</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00100622161215</v>
+        <v>0.9867038568500728</v>
       </c>
       <c r="D9">
-        <v>1.020475256660901</v>
+        <v>1.012806183210117</v>
       </c>
       <c r="E9">
-        <v>1.013163704394409</v>
+        <v>0.9946245253504095</v>
       </c>
       <c r="F9">
-        <v>1.019995531549822</v>
+        <v>1.018231653529654</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04815442449575</v>
+        <v>1.044923107678385</v>
       </c>
       <c r="J9">
-        <v>1.026523497568527</v>
+        <v>1.012735033898515</v>
       </c>
       <c r="K9">
-        <v>1.033244647555437</v>
+        <v>1.025694850538442</v>
       </c>
       <c r="L9">
-        <v>1.026046759894544</v>
+        <v>1.0078054221303</v>
       </c>
       <c r="M9">
-        <v>1.032772316422094</v>
+        <v>1.031035701479503</v>
       </c>
       <c r="N9">
-        <v>1.027981278678965</v>
+        <v>1.014173233808983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9858741046971187</v>
+        <v>0.9731174135522743</v>
       </c>
       <c r="D10">
-        <v>1.008613021133385</v>
+        <v>1.002535759668058</v>
       </c>
       <c r="E10">
-        <v>0.9996634278086068</v>
+        <v>0.9833042100959164</v>
       </c>
       <c r="F10">
-        <v>1.00569218822192</v>
+        <v>1.007046727020954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042013771032314</v>
+        <v>1.040147453179036</v>
       </c>
       <c r="J10">
-        <v>1.014659605240352</v>
+        <v>1.002439758072741</v>
       </c>
       <c r="K10">
-        <v>1.022828486890353</v>
+        <v>1.016859380630163</v>
       </c>
       <c r="L10">
-        <v>1.014038761830436</v>
+        <v>0.9979816003913116</v>
       </c>
       <c r="M10">
-        <v>1.019959423424892</v>
+        <v>1.021289905654251</v>
       </c>
       <c r="N10">
-        <v>1.016100538262876</v>
+        <v>1.003863337510652</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9789513957277841</v>
+        <v>0.9669471857530749</v>
       </c>
       <c r="D11">
-        <v>1.003194950367821</v>
+        <v>0.997881131110591</v>
       </c>
       <c r="E11">
-        <v>0.9934939430123185</v>
+        <v>0.9781755398911133</v>
       </c>
       <c r="F11">
-        <v>0.9991611578367644</v>
+        <v>1.001982760308662</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039187909301511</v>
+        <v>1.037962815844759</v>
       </c>
       <c r="J11">
-        <v>1.00922681655569</v>
+        <v>0.9977627123405515</v>
       </c>
       <c r="K11">
-        <v>1.018056865080231</v>
+        <v>1.012843117125549</v>
       </c>
       <c r="L11">
-        <v>1.008539605944623</v>
+        <v>0.9935211134136378</v>
       </c>
       <c r="M11">
-        <v>1.014098910849234</v>
+        <v>1.016867381293449</v>
       </c>
       <c r="N11">
-        <v>1.010660034395133</v>
+        <v>0.9991796498370576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763177746293193</v>
+        <v>0.9646077279891964</v>
       </c>
       <c r="D12">
-        <v>1.001135318656318</v>
+        <v>0.9961180369848588</v>
       </c>
       <c r="E12">
-        <v>0.9911480747074067</v>
+        <v>0.9762330713923772</v>
       </c>
       <c r="F12">
-        <v>0.9966786355440569</v>
+        <v>1.000065400324718</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038110492581419</v>
+        <v>1.037132281974896</v>
       </c>
       <c r="J12">
-        <v>1.007159361832918</v>
+        <v>0.995989332285094</v>
       </c>
       <c r="K12">
-        <v>1.016240800028057</v>
+        <v>1.011319989106229</v>
       </c>
       <c r="L12">
-        <v>1.006446851560734</v>
+        <v>0.9918302268509235</v>
       </c>
       <c r="M12">
-        <v>1.011869745495982</v>
+        <v>1.015191347474807</v>
       </c>
       <c r="N12">
-        <v>1.008589643649514</v>
+        <v>0.9974037513785117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768856285182183</v>
+        <v>0.9651117795494052</v>
       </c>
       <c r="D13">
-        <v>1.001579334807372</v>
+        <v>0.9964978248863164</v>
       </c>
       <c r="E13">
-        <v>0.9916538264421851</v>
+        <v>0.9766514913985064</v>
       </c>
       <c r="F13">
-        <v>0.9972138119110787</v>
+        <v>1.000478382942393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038342906662805</v>
+        <v>1.037311323670267</v>
       </c>
       <c r="J13">
-        <v>1.007605167244409</v>
+        <v>0.9963714189291315</v>
       </c>
       <c r="K13">
-        <v>1.016632407232951</v>
+        <v>1.011648169438649</v>
       </c>
       <c r="L13">
-        <v>1.006898114054383</v>
+        <v>0.9921945220825343</v>
       </c>
       <c r="M13">
-        <v>1.012350372205237</v>
+        <v>1.015552420497962</v>
       </c>
       <c r="N13">
-        <v>1.009036082155824</v>
+        <v>0.9977863806294099</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9787350109963302</v>
+        <v>0.9667548034123502</v>
       </c>
       <c r="D14">
-        <v>1.003025692423564</v>
+        <v>0.9977361087630944</v>
       </c>
       <c r="E14">
-        <v>0.9933011751716996</v>
+        <v>0.9780157599670024</v>
       </c>
       <c r="F14">
-        <v>0.9989571440936199</v>
+        <v>1.00182503290629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039099433258587</v>
+        <v>1.037894562074763</v>
       </c>
       <c r="J14">
-        <v>1.009056961654192</v>
+        <v>0.9976168810479571</v>
       </c>
       <c r="K14">
-        <v>1.017907667587268</v>
+        <v>1.012717870510539</v>
       </c>
       <c r="L14">
-        <v>1.008367673304063</v>
+        <v>0.9933820579694008</v>
       </c>
       <c r="M14">
-        <v>1.013915748701919</v>
+        <v>1.016729537452438</v>
       </c>
       <c r="N14">
-        <v>1.010489938280192</v>
+        <v>0.999033611447301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9798660166095379</v>
+        <v>0.9677606798222732</v>
       </c>
       <c r="D15">
-        <v>1.003910440078555</v>
+        <v>0.9984944336928231</v>
       </c>
       <c r="E15">
-        <v>0.9943087893802582</v>
+        <v>0.9788512595626215</v>
       </c>
       <c r="F15">
-        <v>1.000023574839135</v>
+        <v>1.002649824806431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039561787018068</v>
+        <v>1.038251339460724</v>
       </c>
       <c r="J15">
-        <v>1.009944738523974</v>
+        <v>0.998379362310022</v>
       </c>
       <c r="K15">
-        <v>1.018687466300465</v>
+        <v>1.013372712895388</v>
       </c>
       <c r="L15">
-        <v>1.009266308168543</v>
+        <v>0.9941091272471761</v>
       </c>
       <c r="M15">
-        <v>1.014873121454049</v>
+        <v>1.017450290969616</v>
       </c>
       <c r="N15">
-        <v>1.011378975894959</v>
+        <v>0.9997971755202156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9863252018462801</v>
+        <v>0.9735204975592198</v>
       </c>
       <c r="D16">
-        <v>1.008966274190024</v>
+        <v>1.002840055032133</v>
       </c>
       <c r="E16">
-        <v>1.000065596941298</v>
+        <v>0.9836395258691634</v>
       </c>
       <c r="F16">
-        <v>1.006118037692356</v>
+        <v>1.007377889893398</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042197577793196</v>
+        <v>1.040289855356875</v>
       </c>
       <c r="J16">
-        <v>1.015013519576567</v>
+        <v>1.002745278619667</v>
       </c>
       <c r="K16">
-        <v>1.023139297336733</v>
+        <v>1.017121692463896</v>
       </c>
       <c r="L16">
-        <v>1.014396992853414</v>
+        <v>0.9982730257156226</v>
       </c>
       <c r="M16">
-        <v>1.020341344974847</v>
+        <v>1.021578909660992</v>
       </c>
       <c r="N16">
-        <v>1.016454955198043</v>
+        <v>1.004169291931798</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9902734028899376</v>
+        <v>0.9770536600119065</v>
       </c>
       <c r="D17">
-        <v>1.012059106409866</v>
+        <v>1.005508417974964</v>
       </c>
       <c r="E17">
-        <v>1.003586328356282</v>
+        <v>0.9865800978164445</v>
       </c>
       <c r="F17">
-        <v>1.009846686682201</v>
+        <v>1.010282432597792</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043804486099299</v>
+        <v>1.041536294387358</v>
       </c>
       <c r="J17">
-        <v>1.018110560394803</v>
+        <v>1.005423114869085</v>
       </c>
       <c r="K17">
-        <v>1.025858948716114</v>
+        <v>1.019420549123352</v>
       </c>
       <c r="L17">
-        <v>1.01753176709359</v>
+        <v>1.000827590397339</v>
       </c>
       <c r="M17">
-        <v>1.023684242768624</v>
+        <v>1.024112543913333</v>
       </c>
       <c r="N17">
-        <v>1.019556394169477</v>
+        <v>1.006850931015842</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925410801316814</v>
+        <v>0.9790871110860357</v>
       </c>
       <c r="D18">
-        <v>1.01383629127178</v>
+        <v>1.007045033390738</v>
       </c>
       <c r="E18">
-        <v>1.005609094903384</v>
+        <v>0.9882736412724314</v>
       </c>
       <c r="F18">
-        <v>1.011989416863952</v>
+        <v>1.01195553514551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044725866310159</v>
+        <v>1.042252169882266</v>
       </c>
       <c r="J18">
-        <v>1.019888868534441</v>
+        <v>1.006964146992035</v>
       </c>
       <c r="K18">
-        <v>1.02742039112893</v>
+        <v>1.020743258435255</v>
       </c>
       <c r="L18">
-        <v>1.019331705402293</v>
+        <v>1.002297904170534</v>
       </c>
       <c r="M18">
-        <v>1.025604357494792</v>
+        <v>1.025571042919073</v>
       </c>
       <c r="N18">
-        <v>1.021337227710648</v>
+        <v>1.008394151581165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9933085041247245</v>
+        <v>0.9797759448401481</v>
       </c>
       <c r="D19">
-        <v>1.014437851128789</v>
+        <v>1.007565706133876</v>
       </c>
       <c r="E19">
-        <v>1.006293734635646</v>
+        <v>0.9888475196805144</v>
       </c>
       <c r="F19">
-        <v>1.012714746597032</v>
+        <v>1.012522536674452</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045037410542755</v>
+        <v>1.042494416398175</v>
       </c>
       <c r="J19">
-        <v>1.02049059248913</v>
+        <v>1.007486143406422</v>
       </c>
       <c r="K19">
-        <v>1.027948704233124</v>
+        <v>1.021191261360499</v>
       </c>
       <c r="L19">
-        <v>1.019940741855845</v>
+        <v>1.002795982970559</v>
       </c>
       <c r="M19">
-        <v>1.026254171519344</v>
+        <v>1.026065156507755</v>
       </c>
       <c r="N19">
-        <v>1.021939806182371</v>
+        <v>1.008916889290335</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9898534875163665</v>
+        <v>0.9766774473606986</v>
       </c>
       <c r="D20">
-        <v>1.011730080300007</v>
+        <v>1.005224195734218</v>
       </c>
       <c r="E20">
-        <v>1.003211812281058</v>
+        <v>0.9862668636922219</v>
       </c>
       <c r="F20">
-        <v>1.009450000547282</v>
+        <v>1.009973003582487</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043633742924075</v>
+        <v>1.041403727050926</v>
       </c>
       <c r="J20">
-        <v>1.017781222147177</v>
+        <v>1.005137992327941</v>
       </c>
       <c r="K20">
-        <v>1.025569759313824</v>
+        <v>1.019175801789184</v>
       </c>
       <c r="L20">
-        <v>1.017198419972823</v>
+        <v>1.000555569999935</v>
       </c>
       <c r="M20">
-        <v>1.023328693737824</v>
+        <v>1.023842727609654</v>
       </c>
       <c r="N20">
-        <v>1.019226588223764</v>
+        <v>1.006565403567986</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9781921898421847</v>
+        <v>0.966272325317987</v>
       </c>
       <c r="D21">
-        <v>1.002601119474148</v>
+        <v>0.9973724340219773</v>
       </c>
       <c r="E21">
-        <v>0.9928176192085516</v>
+        <v>0.9776150800975277</v>
       </c>
       <c r="F21">
-        <v>0.9984453910676829</v>
+        <v>1.001429510174445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038877445342422</v>
+        <v>1.037723352397128</v>
       </c>
       <c r="J21">
-        <v>1.008630855012977</v>
+        <v>0.9972511484205583</v>
       </c>
       <c r="K21">
-        <v>1.01753337984928</v>
+        <v>1.012403758024052</v>
       </c>
       <c r="L21">
-        <v>1.007936353692947</v>
+        <v>0.9930333248205911</v>
       </c>
       <c r="M21">
-        <v>1.01345627596907</v>
+        <v>1.016383850563943</v>
       </c>
       <c r="N21">
-        <v>1.010063226518672</v>
+        <v>0.998667359437621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9704961686831294</v>
+        <v>0.9594523723471786</v>
       </c>
       <c r="D22">
-        <v>0.9965857603299668</v>
+        <v>0.9922362947710771</v>
       </c>
       <c r="E22">
-        <v>0.9859650167094677</v>
+        <v>0.9719566478491887</v>
       </c>
       <c r="F22">
-        <v>0.991195163562834</v>
+        <v>0.9958454836879898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035724647249662</v>
+        <v>1.03529815011969</v>
       </c>
       <c r="J22">
-        <v>1.002588242713183</v>
+        <v>0.9920814865311947</v>
       </c>
       <c r="K22">
-        <v>1.012225158763236</v>
+        <v>1.007963137214294</v>
       </c>
       <c r="L22">
-        <v>1.001819732603079</v>
+        <v>0.9881048989617498</v>
       </c>
       <c r="M22">
-        <v>1.006943087447293</v>
+        <v>1.011499694082906</v>
       </c>
       <c r="N22">
-        <v>1.004012033016314</v>
+        <v>0.993490356035406</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9746129874488247</v>
+        <v>0.9630957389159226</v>
       </c>
       <c r="D23">
-        <v>0.9998025658412163</v>
+        <v>0.9949790730312239</v>
       </c>
       <c r="E23">
-        <v>0.9896299213150415</v>
+        <v>0.9749782719725464</v>
       </c>
       <c r="F23">
-        <v>0.9950722761288566</v>
+        <v>0.9988270034946</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037412412409658</v>
+        <v>1.03659490236216</v>
       </c>
       <c r="J23">
-        <v>1.005820900650023</v>
+        <v>0.9948432014426694</v>
       </c>
       <c r="K23">
-        <v>1.015065032747835</v>
+        <v>1.010335521226805</v>
       </c>
       <c r="L23">
-        <v>1.00509200117865</v>
+        <v>0.990737522200893</v>
       </c>
       <c r="M23">
-        <v>1.010426897019</v>
+        <v>1.01410838233821</v>
       </c>
       <c r="N23">
-        <v>1.007249281698215</v>
+        <v>0.9962559928988283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9900433376220972</v>
+        <v>0.9768475259586316</v>
       </c>
       <c r="D24">
-        <v>1.01187883553902</v>
+        <v>1.005352684483756</v>
       </c>
       <c r="E24">
-        <v>1.003381134794123</v>
+        <v>0.9864084673427448</v>
       </c>
       <c r="F24">
-        <v>1.009629344787035</v>
+        <v>1.010112886105172</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043710943359834</v>
+        <v>1.041463662872051</v>
       </c>
       <c r="J24">
-        <v>1.01793012252394</v>
+        <v>1.005266891295842</v>
       </c>
       <c r="K24">
-        <v>1.02570050813176</v>
+        <v>1.019286448540749</v>
       </c>
       <c r="L24">
-        <v>1.017349132954424</v>
+        <v>1.000678545028509</v>
       </c>
       <c r="M24">
-        <v>1.023489442553503</v>
+        <v>1.023964705496031</v>
       </c>
       <c r="N24">
-        <v>1.019375700056141</v>
+        <v>1.006694485587207</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006581913113089</v>
+        <v>0.9917423829496681</v>
       </c>
       <c r="D25">
-        <v>1.02485194640029</v>
+        <v>1.016621584535957</v>
       </c>
       <c r="E25">
-        <v>1.018142642557314</v>
+        <v>0.9988319350912538</v>
       </c>
       <c r="F25">
-        <v>1.025275217455949</v>
+        <v>1.022391051103704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05040240323765</v>
+        <v>1.04667993481544</v>
       </c>
       <c r="J25">
-        <v>1.030889781959412</v>
+        <v>1.016550880796613</v>
       </c>
       <c r="K25">
-        <v>1.037076339585369</v>
+        <v>1.028967237260192</v>
       </c>
       <c r="L25">
-        <v>1.030465697543967</v>
+        <v>1.011448410865527</v>
       </c>
       <c r="M25">
-        <v>1.037493441272733</v>
+        <v>1.034651441403376</v>
       </c>
       <c r="N25">
-        <v>1.032353763694505</v>
+        <v>1.01799449964736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002899429936862</v>
+        <v>1.046891843372023</v>
       </c>
       <c r="D2">
-        <v>1.025080968524963</v>
+        <v>1.051432107831127</v>
       </c>
       <c r="E2">
-        <v>1.008165873410668</v>
+        <v>1.044365434243451</v>
       </c>
       <c r="F2">
-        <v>1.031622208337091</v>
+        <v>1.06160513625515</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050537343410335</v>
+        <v>1.042651040069261</v>
       </c>
       <c r="J2">
-        <v>1.024993764049133</v>
+        <v>1.051943820030507</v>
       </c>
       <c r="K2">
-        <v>1.036201603269465</v>
+        <v>1.054183626539406</v>
       </c>
       <c r="L2">
-        <v>1.019512604928443</v>
+        <v>1.047136688755698</v>
       </c>
       <c r="M2">
-        <v>1.042657896414062</v>
+        <v>1.064328743368869</v>
       </c>
       <c r="N2">
-        <v>1.026449372762511</v>
+        <v>1.053437700914593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010636307921862</v>
+        <v>1.048414639353447</v>
       </c>
       <c r="D3">
-        <v>1.030954447400222</v>
+        <v>1.052589044441482</v>
       </c>
       <c r="E3">
-        <v>1.014652131752345</v>
+        <v>1.04568232934531</v>
       </c>
       <c r="F3">
-        <v>1.038039558288293</v>
+        <v>1.062896389572507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053181641478435</v>
+        <v>1.043056240418593</v>
       </c>
       <c r="J3">
-        <v>1.030841157082597</v>
+        <v>1.053112047231978</v>
       </c>
       <c r="K3">
-        <v>1.04120600649941</v>
+        <v>1.055152322889519</v>
       </c>
       <c r="L3">
-        <v>1.025100906511588</v>
+        <v>1.048263487955579</v>
       </c>
       <c r="M3">
-        <v>1.048207795101818</v>
+        <v>1.065433450052586</v>
       </c>
       <c r="N3">
-        <v>1.032305069764787</v>
+        <v>1.054607587132687</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015489745015561</v>
+        <v>1.049398523904167</v>
       </c>
       <c r="D4">
-        <v>1.03464137547776</v>
+        <v>1.053336191011605</v>
       </c>
       <c r="E4">
-        <v>1.018726596411558</v>
+        <v>1.046533292221892</v>
       </c>
       <c r="F4">
-        <v>1.042071562520159</v>
+        <v>1.063730733772709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05482572837826</v>
+        <v>1.043316155072624</v>
       </c>
       <c r="J4">
-        <v>1.034505352840605</v>
+        <v>1.053866121976085</v>
       </c>
       <c r="K4">
-        <v>1.044338941534782</v>
+        <v>1.055777090590245</v>
       </c>
       <c r="L4">
-        <v>1.028604141897058</v>
+        <v>1.048990907936311</v>
       </c>
       <c r="M4">
-        <v>1.051687412485604</v>
+        <v>1.066146535464569</v>
       </c>
       <c r="N4">
-        <v>1.035974469101061</v>
+        <v>1.055362732749425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017495637908933</v>
+        <v>1.049811805674939</v>
       </c>
       <c r="D5">
-        <v>1.036165610021126</v>
+        <v>1.053649944607727</v>
       </c>
       <c r="E5">
-        <v>1.02041177876647</v>
+        <v>1.046890766041617</v>
       </c>
       <c r="F5">
-        <v>1.043739335575702</v>
+        <v>1.064081214002134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055501609819568</v>
+        <v>1.043424880257166</v>
       </c>
       <c r="J5">
-        <v>1.036018718190359</v>
+        <v>1.054182698612457</v>
       </c>
       <c r="K5">
-        <v>1.045632131930343</v>
+        <v>1.056039258198641</v>
       </c>
       <c r="L5">
-        <v>1.030051353564639</v>
+        <v>1.049296315009572</v>
       </c>
       <c r="M5">
-        <v>1.053124937478639</v>
+        <v>1.066445906270923</v>
       </c>
       <c r="N5">
-        <v>1.037489983603197</v>
+        <v>1.055679758960933</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01783047117894</v>
+        <v>1.049881177595821</v>
       </c>
       <c r="D6">
-        <v>1.036420065550509</v>
+        <v>1.053702605018349</v>
       </c>
       <c r="E6">
-        <v>1.020693147288121</v>
+        <v>1.046950771748266</v>
       </c>
       <c r="F6">
-        <v>1.044017805004753</v>
+        <v>1.06414004501755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055614216747671</v>
+        <v>1.043443103919573</v>
       </c>
       <c r="J6">
-        <v>1.036271274177167</v>
+        <v>1.054235827796045</v>
       </c>
       <c r="K6">
-        <v>1.04584789884289</v>
+        <v>1.056083248999237</v>
       </c>
       <c r="L6">
-        <v>1.030292888449671</v>
+        <v>1.049347570883427</v>
       </c>
       <c r="M6">
-        <v>1.053364858713489</v>
+        <v>1.066496148023668</v>
       </c>
       <c r="N6">
-        <v>1.037742898248475</v>
+        <v>1.055732963594055</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015516680744614</v>
+        <v>1.049404047534764</v>
       </c>
       <c r="D7">
-        <v>1.034661841730026</v>
+        <v>1.05334038475936</v>
       </c>
       <c r="E7">
-        <v>1.018749220786713</v>
+        <v>1.046538069862076</v>
       </c>
       <c r="F7">
-        <v>1.042093952623368</v>
+        <v>1.063735417992968</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054834818702131</v>
+        <v>1.043317609994533</v>
       </c>
       <c r="J7">
-        <v>1.034525678905126</v>
+        <v>1.053870353796338</v>
       </c>
       <c r="K7">
-        <v>1.044356313461591</v>
+        <v>1.055780595585775</v>
       </c>
       <c r="L7">
-        <v>1.028623578173224</v>
+        <v>1.048994990366798</v>
       </c>
       <c r="M7">
-        <v>1.051706718440939</v>
+        <v>1.066150537278291</v>
       </c>
       <c r="N7">
-        <v>1.035994824030925</v>
+        <v>1.055366970579348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00554711326145</v>
+        <v>1.047406787673576</v>
       </c>
       <c r="D8">
-        <v>1.027090372152515</v>
+        <v>1.051823406998677</v>
       </c>
       <c r="E8">
-        <v>1.010384337308036</v>
+        <v>1.044810728061773</v>
       </c>
       <c r="F8">
-        <v>1.033816900269693</v>
+        <v>1.06204176942545</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051445322109198</v>
+        <v>1.042788452234851</v>
       </c>
       <c r="J8">
-        <v>1.026995620162018</v>
+        <v>1.052339013590752</v>
       </c>
       <c r="K8">
-        <v>1.037915476597151</v>
+        <v>1.054511427874758</v>
       </c>
       <c r="L8">
-        <v>1.021425459669837</v>
+        <v>1.047517849907632</v>
       </c>
       <c r="M8">
-        <v>1.044557484451486</v>
+        <v>1.064702446001549</v>
       </c>
       <c r="N8">
-        <v>1.028454071740691</v>
+        <v>1.053833455695023</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9867038568500728</v>
+        <v>1.043875783106667</v>
       </c>
       <c r="D9">
-        <v>1.012806183210117</v>
+        <v>1.049138832726835</v>
       </c>
       <c r="E9">
-        <v>0.9946245253504095</v>
+        <v>1.041757812077018</v>
       </c>
       <c r="F9">
-        <v>1.018231653529654</v>
+        <v>1.059048051633668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923107678385</v>
+        <v>1.041838469783697</v>
       </c>
       <c r="J9">
-        <v>1.012735033898515</v>
+        <v>1.04962620178165</v>
       </c>
       <c r="K9">
-        <v>1.025694850538442</v>
+        <v>1.052259137333972</v>
       </c>
       <c r="L9">
-        <v>1.0078054221303</v>
+        <v>1.044901720827838</v>
       </c>
       <c r="M9">
-        <v>1.031035701479503</v>
+        <v>1.062137232399849</v>
       </c>
       <c r="N9">
-        <v>1.014173233808983</v>
+        <v>1.051116791381988</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9731174135522743</v>
+        <v>1.041513507968931</v>
       </c>
       <c r="D10">
-        <v>1.002535759668058</v>
+        <v>1.04734110220531</v>
       </c>
       <c r="E10">
-        <v>0.9833042100959164</v>
+        <v>1.039716033609585</v>
       </c>
       <c r="F10">
-        <v>1.007046727020954</v>
+        <v>1.057045664773425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040147453179036</v>
+        <v>1.041193215497435</v>
       </c>
       <c r="J10">
-        <v>1.002439758072741</v>
+        <v>1.047807625382248</v>
       </c>
       <c r="K10">
-        <v>1.016859380630163</v>
+        <v>1.050746663781903</v>
       </c>
       <c r="L10">
-        <v>0.9979816003913116</v>
+        <v>1.043148407562621</v>
       </c>
       <c r="M10">
-        <v>1.021289905654251</v>
+        <v>1.060417717262961</v>
       </c>
       <c r="N10">
-        <v>1.003863337510652</v>
+        <v>1.049295632395505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9669471857530749</v>
+        <v>1.040488545539752</v>
       </c>
       <c r="D11">
-        <v>0.997881131110591</v>
+        <v>1.046560695358697</v>
       </c>
       <c r="E11">
-        <v>0.9781755398911133</v>
+        <v>1.038830296018702</v>
       </c>
       <c r="F11">
-        <v>1.001982760308662</v>
+        <v>1.056176976006995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037962815844759</v>
+        <v>1.040910951204822</v>
       </c>
       <c r="J11">
-        <v>0.9977627123405515</v>
+        <v>1.047017701395699</v>
       </c>
       <c r="K11">
-        <v>1.012843117125549</v>
+        <v>1.050089085163962</v>
       </c>
       <c r="L11">
-        <v>0.9935211134136378</v>
+        <v>1.042386938810727</v>
       </c>
       <c r="M11">
-        <v>1.016867381293449</v>
+        <v>1.059670857214731</v>
       </c>
       <c r="N11">
-        <v>0.9991796498370576</v>
+        <v>1.04850458662629</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9646077279891964</v>
+        <v>1.040107506618314</v>
       </c>
       <c r="D12">
-        <v>0.9961180369848588</v>
+        <v>1.046270514361233</v>
       </c>
       <c r="E12">
-        <v>0.9762330713923772</v>
+        <v>1.038501040911495</v>
       </c>
       <c r="F12">
-        <v>1.000065400324718</v>
+        <v>1.055854053177732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037132281974896</v>
+        <v>1.040805672438857</v>
       </c>
       <c r="J12">
-        <v>0.995989332285094</v>
+        <v>1.046723910613474</v>
       </c>
       <c r="K12">
-        <v>1.011319989106229</v>
+        <v>1.04984442475844</v>
       </c>
       <c r="L12">
-        <v>0.9918302268509235</v>
+        <v>1.042103747341903</v>
       </c>
       <c r="M12">
-        <v>1.015191347474807</v>
+        <v>1.059393088841188</v>
       </c>
       <c r="N12">
-        <v>0.9974037513785117</v>
+        <v>1.048210378627456</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9651117795494052</v>
+        <v>1.040189255495487</v>
       </c>
       <c r="D13">
-        <v>0.9964978248863164</v>
+        <v>1.046332772985565</v>
       </c>
       <c r="E13">
-        <v>0.9766514913985064</v>
+        <v>1.038571678802892</v>
       </c>
       <c r="F13">
-        <v>1.000478382942393</v>
+        <v>1.05592333278012</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037311323670267</v>
+        <v>1.040828274742053</v>
       </c>
       <c r="J13">
-        <v>0.9963714189291315</v>
+        <v>1.046786946944579</v>
       </c>
       <c r="K13">
-        <v>1.011648169438649</v>
+        <v>1.049896923728951</v>
       </c>
       <c r="L13">
-        <v>0.9921945220825343</v>
+        <v>1.042164508731452</v>
       </c>
       <c r="M13">
-        <v>1.015552420497962</v>
+        <v>1.059452687093292</v>
       </c>
       <c r="N13">
-        <v>0.9977863806294099</v>
+        <v>1.048273504477382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9667548034123502</v>
+        <v>1.040457055372342</v>
       </c>
       <c r="D14">
-        <v>0.9977361087630944</v>
+        <v>1.046536715126069</v>
       </c>
       <c r="E14">
-        <v>0.9780157599670024</v>
+        <v>1.038803084886449</v>
       </c>
       <c r="F14">
-        <v>1.00182503290629</v>
+        <v>1.056150288306709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037894562074763</v>
+        <v>1.040902257683535</v>
       </c>
       <c r="J14">
-        <v>0.9976168810479571</v>
+        <v>1.046993424306506</v>
       </c>
       <c r="K14">
-        <v>1.012717870510539</v>
+        <v>1.050068869782402</v>
       </c>
       <c r="L14">
-        <v>0.9933820579694008</v>
+        <v>1.042363537254727</v>
       </c>
       <c r="M14">
-        <v>1.016729537452438</v>
+        <v>1.059647903995302</v>
       </c>
       <c r="N14">
-        <v>0.999033611447301</v>
+        <v>1.048480275060845</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9677606798222732</v>
+        <v>1.04062201273021</v>
       </c>
       <c r="D15">
-        <v>0.9984944336928231</v>
+        <v>1.04666233025872</v>
       </c>
       <c r="E15">
-        <v>0.9788512595626215</v>
+        <v>1.038945628105598</v>
       </c>
       <c r="F15">
-        <v>1.002649824806431</v>
+        <v>1.056290089359464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038251339460724</v>
+        <v>1.040947783522324</v>
       </c>
       <c r="J15">
-        <v>0.998379362310022</v>
+        <v>1.047120591545899</v>
       </c>
       <c r="K15">
-        <v>1.013372712895388</v>
+        <v>1.050174757395258</v>
       </c>
       <c r="L15">
-        <v>0.9941091272471761</v>
+        <v>1.042486118974312</v>
       </c>
       <c r="M15">
-        <v>1.017450290969616</v>
+        <v>1.059768136842312</v>
       </c>
       <c r="N15">
-        <v>0.9997971755202156</v>
+        <v>1.048607622892305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9735204975592198</v>
+        <v>1.041581486682528</v>
       </c>
       <c r="D16">
-        <v>1.002840055032133</v>
+        <v>1.047392853057272</v>
       </c>
       <c r="E16">
-        <v>0.9836395258691634</v>
+        <v>1.039774782052985</v>
       </c>
       <c r="F16">
-        <v>1.007377889893398</v>
+        <v>1.05710328164112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040289855356875</v>
+        <v>1.041211887848343</v>
       </c>
       <c r="J16">
-        <v>1.002745278619667</v>
+        <v>1.047859997433672</v>
       </c>
       <c r="K16">
-        <v>1.017121692463896</v>
+        <v>1.050790248424642</v>
       </c>
       <c r="L16">
-        <v>0.9982730257156226</v>
+        <v>1.043198895289915</v>
       </c>
       <c r="M16">
-        <v>1.021578909660992</v>
+        <v>1.060467234967928</v>
       </c>
       <c r="N16">
-        <v>1.004169291931798</v>
+        <v>1.04934807882125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9770536600119065</v>
+        <v>1.042182775337301</v>
       </c>
       <c r="D17">
-        <v>1.005508417974964</v>
+        <v>1.047850556993545</v>
       </c>
       <c r="E17">
-        <v>0.9865800978164445</v>
+        <v>1.040294445850455</v>
       </c>
       <c r="F17">
-        <v>1.010282432597792</v>
+        <v>1.057612931520904</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041536294387358</v>
+        <v>1.041376784511287</v>
       </c>
       <c r="J17">
-        <v>1.005423114869085</v>
+        <v>1.048323141430936</v>
       </c>
       <c r="K17">
-        <v>1.019420549123352</v>
+        <v>1.0511756115209</v>
       </c>
       <c r="L17">
-        <v>1.000827590397339</v>
+        <v>1.043645387941758</v>
       </c>
       <c r="M17">
-        <v>1.024112543913333</v>
+        <v>1.060905141152969</v>
       </c>
       <c r="N17">
-        <v>1.006850931015842</v>
+        <v>1.049811880536113</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9790871110860357</v>
+        <v>1.042533296627153</v>
       </c>
       <c r="D18">
-        <v>1.007045033390738</v>
+        <v>1.048117337549991</v>
       </c>
       <c r="E18">
-        <v>0.9882736412724314</v>
+        <v>1.040597399782303</v>
       </c>
       <c r="F18">
-        <v>1.01195553514551</v>
+        <v>1.057910043678906</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042252169882266</v>
+        <v>1.041472689712921</v>
       </c>
       <c r="J18">
-        <v>1.006964146992035</v>
+        <v>1.048593047799275</v>
       </c>
       <c r="K18">
-        <v>1.020743258435255</v>
+        <v>1.051400130296418</v>
       </c>
       <c r="L18">
-        <v>1.002297904170534</v>
+        <v>1.04390560073675</v>
       </c>
       <c r="M18">
-        <v>1.025571042919073</v>
+        <v>1.061160343041236</v>
       </c>
       <c r="N18">
-        <v>1.008394151581165</v>
+        <v>1.050082170202454</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9797759448401481</v>
+        <v>1.042652781655352</v>
       </c>
       <c r="D19">
-        <v>1.007565706133876</v>
+        <v>1.048208270710544</v>
       </c>
       <c r="E19">
-        <v>0.9888475196805144</v>
+        <v>1.040700672803077</v>
       </c>
       <c r="F19">
-        <v>1.012522536674452</v>
+        <v>1.058011324641948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042494416398175</v>
+        <v>1.041505344139166</v>
       </c>
       <c r="J19">
-        <v>1.007486143406422</v>
+        <v>1.048685038790039</v>
       </c>
       <c r="K19">
-        <v>1.021191261360499</v>
+        <v>1.051476641975368</v>
       </c>
       <c r="L19">
-        <v>1.002795982970559</v>
+        <v>1.043994289660612</v>
       </c>
       <c r="M19">
-        <v>1.026065156507755</v>
+        <v>1.061247322919107</v>
       </c>
       <c r="N19">
-        <v>1.008916889290335</v>
+        <v>1.050174291830976</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9766774473606986</v>
+        <v>1.042118283532523</v>
       </c>
       <c r="D20">
-        <v>1.005224195734218</v>
+        <v>1.047801469431117</v>
       </c>
       <c r="E20">
-        <v>0.9862668636922219</v>
+        <v>1.040238707152225</v>
       </c>
       <c r="F20">
-        <v>1.009973003582487</v>
+        <v>1.057558267300921</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041403727050926</v>
+        <v>1.041359121252323</v>
       </c>
       <c r="J20">
-        <v>1.005137992327941</v>
+        <v>1.048273475099207</v>
       </c>
       <c r="K20">
-        <v>1.019175801789184</v>
+        <v>1.051134292331282</v>
       </c>
       <c r="L20">
-        <v>1.000555569999935</v>
+        <v>1.043597506187009</v>
       </c>
       <c r="M20">
-        <v>1.023842727609654</v>
+        <v>1.060858180905226</v>
       </c>
       <c r="N20">
-        <v>1.006565403567986</v>
+        <v>1.049762143672496</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.966272325317987</v>
+        <v>1.040378203955252</v>
       </c>
       <c r="D21">
-        <v>0.9973724340219773</v>
+        <v>1.046476667665801</v>
       </c>
       <c r="E21">
-        <v>0.9776150800975277</v>
+        <v>1.038734948597391</v>
       </c>
       <c r="F21">
-        <v>1.001429510174445</v>
+        <v>1.056083462600866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037723352397128</v>
+        <v>1.040880483533537</v>
       </c>
       <c r="J21">
-        <v>0.9972511484205583</v>
+        <v>1.04693263235646</v>
       </c>
       <c r="K21">
-        <v>1.012403758024052</v>
+        <v>1.050018247220348</v>
       </c>
       <c r="L21">
-        <v>0.9930333248205911</v>
+        <v>1.042304937977349</v>
       </c>
       <c r="M21">
-        <v>1.016383850563943</v>
+        <v>1.059590427228905</v>
       </c>
       <c r="N21">
-        <v>0.998667359437621</v>
+        <v>1.048419396779257</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9594523723471786</v>
+        <v>1.039282277736448</v>
       </c>
       <c r="D22">
-        <v>0.9922362947710771</v>
+        <v>1.04564195527727</v>
       </c>
       <c r="E22">
-        <v>0.9719566478491887</v>
+        <v>1.037788010077768</v>
       </c>
       <c r="F22">
-        <v>0.9958454836879898</v>
+        <v>1.055154726511083</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03529815011969</v>
+        <v>1.04057703699608</v>
       </c>
       <c r="J22">
-        <v>0.9920814865311947</v>
+        <v>1.046087401723353</v>
       </c>
       <c r="K22">
-        <v>1.007963137214294</v>
+        <v>1.049314191060404</v>
       </c>
       <c r="L22">
-        <v>0.9881048989617498</v>
+        <v>1.041490231886776</v>
       </c>
       <c r="M22">
-        <v>1.011499694082906</v>
+        <v>1.058791304689992</v>
       </c>
       <c r="N22">
-        <v>0.993490356035406</v>
+        <v>1.047572965821702</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9630957389159226</v>
+        <v>1.039863429317034</v>
       </c>
       <c r="D23">
-        <v>0.9949790730312239</v>
+        <v>1.046084620669507</v>
       </c>
       <c r="E23">
-        <v>0.9749782719725464</v>
+        <v>1.038290141476147</v>
       </c>
       <c r="F23">
-        <v>0.9988270034946</v>
+        <v>1.055647208384163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03659490236216</v>
+        <v>1.040738138423937</v>
       </c>
       <c r="J23">
-        <v>0.9948432014426694</v>
+        <v>1.046535684369782</v>
       </c>
       <c r="K23">
-        <v>1.010335521226805</v>
+        <v>1.049687649612008</v>
       </c>
       <c r="L23">
-        <v>0.990737522200893</v>
+        <v>1.041922316435048</v>
       </c>
       <c r="M23">
-        <v>1.01410838233821</v>
+        <v>1.059215129608161</v>
       </c>
       <c r="N23">
-        <v>0.9962559928988283</v>
+        <v>1.048021885080908</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9768475259586316</v>
+        <v>1.042147425221936</v>
       </c>
       <c r="D24">
-        <v>1.005352684483756</v>
+        <v>1.04782365057624</v>
       </c>
       <c r="E24">
-        <v>0.9864084673427448</v>
+        <v>1.04026389355661</v>
       </c>
       <c r="F24">
-        <v>1.010112886105172</v>
+        <v>1.057582968197432</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041463662872051</v>
+        <v>1.0413671033724</v>
       </c>
       <c r="J24">
-        <v>1.005266891295842</v>
+        <v>1.048295917911318</v>
       </c>
       <c r="K24">
-        <v>1.019286448540749</v>
+        <v>1.051152963488832</v>
       </c>
       <c r="L24">
-        <v>1.000678545028509</v>
+        <v>1.043619142567273</v>
       </c>
       <c r="M24">
-        <v>1.023964705496031</v>
+        <v>1.06087940090411</v>
       </c>
       <c r="N24">
-        <v>1.006694485587207</v>
+        <v>1.049784618355975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9917423829496681</v>
+        <v>1.044790054452863</v>
       </c>
       <c r="D25">
-        <v>1.016621584535957</v>
+        <v>1.049834249553238</v>
       </c>
       <c r="E25">
-        <v>0.9988319350912538</v>
+        <v>1.04254818261813</v>
       </c>
       <c r="F25">
-        <v>1.022391051103704</v>
+        <v>1.05982313417959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04667993481544</v>
+        <v>1.04208615584652</v>
       </c>
       <c r="J25">
-        <v>1.016550880796613</v>
+        <v>1.050329271093771</v>
       </c>
       <c r="K25">
-        <v>1.028967237260192</v>
+        <v>1.052843316668414</v>
       </c>
       <c r="L25">
-        <v>1.011448410865527</v>
+        <v>1.045579654215102</v>
       </c>
       <c r="M25">
-        <v>1.034651441403376</v>
+        <v>1.062802031343123</v>
       </c>
       <c r="N25">
-        <v>1.01799449964736</v>
+        <v>1.051820859133176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046891843372023</v>
+        <v>1.002899429936861</v>
       </c>
       <c r="D2">
-        <v>1.051432107831127</v>
+        <v>1.025080968524962</v>
       </c>
       <c r="E2">
-        <v>1.044365434243451</v>
+        <v>1.008165873410667</v>
       </c>
       <c r="F2">
-        <v>1.06160513625515</v>
+        <v>1.03162220833709</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042651040069261</v>
+        <v>1.050537343410335</v>
       </c>
       <c r="J2">
-        <v>1.051943820030507</v>
+        <v>1.024993764049132</v>
       </c>
       <c r="K2">
-        <v>1.054183626539406</v>
+        <v>1.036201603269465</v>
       </c>
       <c r="L2">
-        <v>1.047136688755698</v>
+        <v>1.019512604928442</v>
       </c>
       <c r="M2">
-        <v>1.064328743368869</v>
+        <v>1.042657896414061</v>
       </c>
       <c r="N2">
-        <v>1.053437700914593</v>
+        <v>1.02644937276251</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048414639353447</v>
+        <v>1.010636307921861</v>
       </c>
       <c r="D3">
-        <v>1.052589044441482</v>
+        <v>1.030954447400221</v>
       </c>
       <c r="E3">
-        <v>1.04568232934531</v>
+        <v>1.014652131752343</v>
       </c>
       <c r="F3">
-        <v>1.062896389572507</v>
+        <v>1.038039558288292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043056240418593</v>
+        <v>1.053181641478434</v>
       </c>
       <c r="J3">
-        <v>1.053112047231978</v>
+        <v>1.030841157082595</v>
       </c>
       <c r="K3">
-        <v>1.055152322889519</v>
+        <v>1.041206006499409</v>
       </c>
       <c r="L3">
-        <v>1.048263487955579</v>
+        <v>1.025100906511586</v>
       </c>
       <c r="M3">
-        <v>1.065433450052586</v>
+        <v>1.048207795101817</v>
       </c>
       <c r="N3">
-        <v>1.054607587132687</v>
+        <v>1.032305069764786</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049398523904167</v>
+        <v>1.015489745015561</v>
       </c>
       <c r="D4">
-        <v>1.053336191011605</v>
+        <v>1.034641375477761</v>
       </c>
       <c r="E4">
-        <v>1.046533292221892</v>
+        <v>1.018726596411558</v>
       </c>
       <c r="F4">
-        <v>1.063730733772709</v>
+        <v>1.04207156252016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043316155072624</v>
+        <v>1.05482572837826</v>
       </c>
       <c r="J4">
-        <v>1.053866121976085</v>
+        <v>1.034505352840605</v>
       </c>
       <c r="K4">
-        <v>1.055777090590245</v>
+        <v>1.044338941534783</v>
       </c>
       <c r="L4">
-        <v>1.048990907936311</v>
+        <v>1.028604141897058</v>
       </c>
       <c r="M4">
-        <v>1.066146535464569</v>
+        <v>1.051687412485604</v>
       </c>
       <c r="N4">
-        <v>1.055362732749425</v>
+        <v>1.035974469101061</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049811805674939</v>
+        <v>1.017495637908933</v>
       </c>
       <c r="D5">
-        <v>1.053649944607727</v>
+        <v>1.036165610021126</v>
       </c>
       <c r="E5">
-        <v>1.046890766041617</v>
+        <v>1.02041177876647</v>
       </c>
       <c r="F5">
-        <v>1.064081214002134</v>
+        <v>1.043739335575702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043424880257166</v>
+        <v>1.055501609819568</v>
       </c>
       <c r="J5">
-        <v>1.054182698612457</v>
+        <v>1.036018718190359</v>
       </c>
       <c r="K5">
-        <v>1.056039258198641</v>
+        <v>1.045632131930342</v>
       </c>
       <c r="L5">
-        <v>1.049296315009572</v>
+        <v>1.030051353564639</v>
       </c>
       <c r="M5">
-        <v>1.066445906270923</v>
+        <v>1.053124937478639</v>
       </c>
       <c r="N5">
-        <v>1.055679758960933</v>
+        <v>1.037489983603197</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049881177595821</v>
+        <v>1.017830471178941</v>
       </c>
       <c r="D6">
-        <v>1.053702605018349</v>
+        <v>1.036420065550509</v>
       </c>
       <c r="E6">
-        <v>1.046950771748266</v>
+        <v>1.020693147288121</v>
       </c>
       <c r="F6">
-        <v>1.06414004501755</v>
+        <v>1.044017805004753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043443103919573</v>
+        <v>1.055614216747671</v>
       </c>
       <c r="J6">
-        <v>1.054235827796045</v>
+        <v>1.036271274177168</v>
       </c>
       <c r="K6">
-        <v>1.056083248999237</v>
+        <v>1.045847898842891</v>
       </c>
       <c r="L6">
-        <v>1.049347570883427</v>
+        <v>1.030292888449671</v>
       </c>
       <c r="M6">
-        <v>1.066496148023668</v>
+        <v>1.053364858713489</v>
       </c>
       <c r="N6">
-        <v>1.055732963594055</v>
+        <v>1.037742898248476</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049404047534764</v>
+        <v>1.015516680744614</v>
       </c>
       <c r="D7">
-        <v>1.05334038475936</v>
+        <v>1.034661841730026</v>
       </c>
       <c r="E7">
-        <v>1.046538069862076</v>
+        <v>1.018749220786713</v>
       </c>
       <c r="F7">
-        <v>1.063735417992968</v>
+        <v>1.042093952623368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043317609994533</v>
+        <v>1.054834818702131</v>
       </c>
       <c r="J7">
-        <v>1.053870353796338</v>
+        <v>1.034525678905126</v>
       </c>
       <c r="K7">
-        <v>1.055780595585775</v>
+        <v>1.044356313461591</v>
       </c>
       <c r="L7">
-        <v>1.048994990366798</v>
+        <v>1.028623578173225</v>
       </c>
       <c r="M7">
-        <v>1.066150537278291</v>
+        <v>1.051706718440939</v>
       </c>
       <c r="N7">
-        <v>1.055366970579348</v>
+        <v>1.035994824030925</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047406787673576</v>
+        <v>1.005547113261447</v>
       </c>
       <c r="D8">
-        <v>1.051823406998677</v>
+        <v>1.027090372152513</v>
       </c>
       <c r="E8">
-        <v>1.044810728061773</v>
+        <v>1.010384337308034</v>
       </c>
       <c r="F8">
-        <v>1.06204176942545</v>
+        <v>1.03381690026969</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042788452234851</v>
+        <v>1.051445322109197</v>
       </c>
       <c r="J8">
-        <v>1.052339013590752</v>
+        <v>1.026995620162016</v>
       </c>
       <c r="K8">
-        <v>1.054511427874758</v>
+        <v>1.037915476597149</v>
       </c>
       <c r="L8">
-        <v>1.047517849907632</v>
+        <v>1.021425459669835</v>
       </c>
       <c r="M8">
-        <v>1.064702446001549</v>
+        <v>1.044557484451484</v>
       </c>
       <c r="N8">
-        <v>1.053833455695023</v>
+        <v>1.02845407174069</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043875783106667</v>
+        <v>0.9867038568500733</v>
       </c>
       <c r="D9">
-        <v>1.049138832726835</v>
+        <v>1.012806183210118</v>
       </c>
       <c r="E9">
-        <v>1.041757812077018</v>
+        <v>0.9946245253504101</v>
       </c>
       <c r="F9">
-        <v>1.059048051633668</v>
+        <v>1.018231653529654</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041838469783697</v>
+        <v>1.044923107678386</v>
       </c>
       <c r="J9">
-        <v>1.04962620178165</v>
+        <v>1.012735033898516</v>
       </c>
       <c r="K9">
-        <v>1.052259137333972</v>
+        <v>1.025694850538442</v>
       </c>
       <c r="L9">
-        <v>1.044901720827838</v>
+        <v>1.007805422130301</v>
       </c>
       <c r="M9">
-        <v>1.062137232399849</v>
+        <v>1.031035701479503</v>
       </c>
       <c r="N9">
-        <v>1.051116791381988</v>
+        <v>1.014173233808984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041513507968931</v>
+        <v>0.9731174135522739</v>
       </c>
       <c r="D10">
-        <v>1.04734110220531</v>
+        <v>1.002535759668058</v>
       </c>
       <c r="E10">
-        <v>1.039716033609585</v>
+        <v>0.9833042100959156</v>
       </c>
       <c r="F10">
-        <v>1.057045664773425</v>
+        <v>1.007046727020954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041193215497435</v>
+        <v>1.040147453179036</v>
       </c>
       <c r="J10">
-        <v>1.047807625382248</v>
+        <v>1.002439758072741</v>
       </c>
       <c r="K10">
-        <v>1.050746663781903</v>
+        <v>1.016859380630163</v>
       </c>
       <c r="L10">
-        <v>1.043148407562621</v>
+        <v>0.9979816003913109</v>
       </c>
       <c r="M10">
-        <v>1.060417717262961</v>
+        <v>1.02128990565425</v>
       </c>
       <c r="N10">
-        <v>1.049295632395505</v>
+        <v>1.003863337510651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040488545539752</v>
+        <v>0.9669471857530739</v>
       </c>
       <c r="D11">
-        <v>1.046560695358697</v>
+        <v>0.9978811311105901</v>
       </c>
       <c r="E11">
-        <v>1.038830296018702</v>
+        <v>0.9781755398911124</v>
       </c>
       <c r="F11">
-        <v>1.056176976006995</v>
+        <v>1.001982760308661</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040910951204822</v>
+        <v>1.037962815844758</v>
       </c>
       <c r="J11">
-        <v>1.047017701395699</v>
+        <v>0.9977627123405505</v>
       </c>
       <c r="K11">
-        <v>1.050089085163962</v>
+        <v>1.012843117125548</v>
       </c>
       <c r="L11">
-        <v>1.042386938810727</v>
+        <v>0.9935211134136367</v>
       </c>
       <c r="M11">
-        <v>1.059670857214731</v>
+        <v>1.016867381293449</v>
       </c>
       <c r="N11">
-        <v>1.04850458662629</v>
+        <v>0.9991796498370566</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040107506618314</v>
+        <v>0.9646077279891963</v>
       </c>
       <c r="D12">
-        <v>1.046270514361233</v>
+        <v>0.9961180369848586</v>
       </c>
       <c r="E12">
-        <v>1.038501040911495</v>
+        <v>0.9762330713923769</v>
       </c>
       <c r="F12">
-        <v>1.055854053177732</v>
+        <v>1.000065400324717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040805672438857</v>
+        <v>1.037132281974896</v>
       </c>
       <c r="J12">
-        <v>1.046723910613474</v>
+        <v>0.9959893322850937</v>
       </c>
       <c r="K12">
-        <v>1.04984442475844</v>
+        <v>1.011319989106229</v>
       </c>
       <c r="L12">
-        <v>1.042103747341903</v>
+        <v>0.9918302268509234</v>
       </c>
       <c r="M12">
-        <v>1.059393088841188</v>
+        <v>1.015191347474806</v>
       </c>
       <c r="N12">
-        <v>1.048210378627456</v>
+        <v>0.9974037513785117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040189255495487</v>
+        <v>0.965111779549402</v>
       </c>
       <c r="D13">
-        <v>1.046332772985565</v>
+        <v>0.9964978248863133</v>
       </c>
       <c r="E13">
-        <v>1.038571678802892</v>
+        <v>0.976651491398503</v>
       </c>
       <c r="F13">
-        <v>1.05592333278012</v>
+        <v>1.00047838294239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040828274742053</v>
+        <v>1.037311323670265</v>
       </c>
       <c r="J13">
-        <v>1.046786946944579</v>
+        <v>0.9963714189291283</v>
       </c>
       <c r="K13">
-        <v>1.049896923728951</v>
+        <v>1.011648169438646</v>
       </c>
       <c r="L13">
-        <v>1.042164508731452</v>
+        <v>0.992194522082531</v>
       </c>
       <c r="M13">
-        <v>1.059452687093292</v>
+        <v>1.015552420497959</v>
       </c>
       <c r="N13">
-        <v>1.048273504477382</v>
+        <v>0.9977863806294066</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040457055372342</v>
+        <v>0.9667548034123479</v>
       </c>
       <c r="D14">
-        <v>1.046536715126069</v>
+        <v>0.9977361087630929</v>
       </c>
       <c r="E14">
-        <v>1.038803084886449</v>
+        <v>0.9780157599670005</v>
       </c>
       <c r="F14">
-        <v>1.056150288306709</v>
+        <v>1.001825032906289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040902257683535</v>
+        <v>1.037894562074762</v>
       </c>
       <c r="J14">
-        <v>1.046993424306506</v>
+        <v>0.997616881047955</v>
       </c>
       <c r="K14">
-        <v>1.050068869782402</v>
+        <v>1.012717870510538</v>
       </c>
       <c r="L14">
-        <v>1.042363537254727</v>
+        <v>0.9933820579693989</v>
       </c>
       <c r="M14">
-        <v>1.059647903995302</v>
+        <v>1.016729537452437</v>
       </c>
       <c r="N14">
-        <v>1.048480275060845</v>
+        <v>0.9990336114472987</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04062201273021</v>
+        <v>0.9677606798222734</v>
       </c>
       <c r="D15">
-        <v>1.04666233025872</v>
+        <v>0.9984944336928229</v>
       </c>
       <c r="E15">
-        <v>1.038945628105598</v>
+        <v>0.9788512595626214</v>
       </c>
       <c r="F15">
-        <v>1.056290089359464</v>
+        <v>1.002649824806431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040947783522324</v>
+        <v>1.038251339460724</v>
       </c>
       <c r="J15">
-        <v>1.047120591545899</v>
+        <v>0.998379362310022</v>
       </c>
       <c r="K15">
-        <v>1.050174757395258</v>
+        <v>1.013372712895388</v>
       </c>
       <c r="L15">
-        <v>1.042486118974312</v>
+        <v>0.994109127247176</v>
       </c>
       <c r="M15">
-        <v>1.059768136842312</v>
+        <v>1.017450290969616</v>
       </c>
       <c r="N15">
-        <v>1.048607622892305</v>
+        <v>0.9997971755202156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041581486682528</v>
+        <v>0.9735204975592198</v>
       </c>
       <c r="D16">
-        <v>1.047392853057272</v>
+        <v>1.002840055032133</v>
       </c>
       <c r="E16">
-        <v>1.039774782052985</v>
+        <v>0.9836395258691631</v>
       </c>
       <c r="F16">
-        <v>1.05710328164112</v>
+        <v>1.007377889893399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041211887848343</v>
+        <v>1.040289855356875</v>
       </c>
       <c r="J16">
-        <v>1.047859997433672</v>
+        <v>1.002745278619666</v>
       </c>
       <c r="K16">
-        <v>1.050790248424642</v>
+        <v>1.017121692463896</v>
       </c>
       <c r="L16">
-        <v>1.043198895289915</v>
+        <v>0.9982730257156224</v>
       </c>
       <c r="M16">
-        <v>1.060467234967928</v>
+        <v>1.021578909660992</v>
       </c>
       <c r="N16">
-        <v>1.04934807882125</v>
+        <v>1.004169291931798</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042182775337301</v>
+        <v>0.977053660011905</v>
       </c>
       <c r="D17">
-        <v>1.047850556993545</v>
+        <v>1.005508417974963</v>
       </c>
       <c r="E17">
-        <v>1.040294445850455</v>
+        <v>0.9865800978164433</v>
       </c>
       <c r="F17">
-        <v>1.057612931520904</v>
+        <v>1.010282432597791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041376784511287</v>
+        <v>1.041536294387358</v>
       </c>
       <c r="J17">
-        <v>1.048323141430936</v>
+        <v>1.005423114869083</v>
       </c>
       <c r="K17">
-        <v>1.0511756115209</v>
+        <v>1.019420549123351</v>
       </c>
       <c r="L17">
-        <v>1.043645387941758</v>
+        <v>1.000827590397338</v>
       </c>
       <c r="M17">
-        <v>1.060905141152969</v>
+        <v>1.024112543913332</v>
       </c>
       <c r="N17">
-        <v>1.049811880536113</v>
+        <v>1.006850931015841</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042533296627153</v>
+        <v>0.9790871110860346</v>
       </c>
       <c r="D18">
-        <v>1.048117337549991</v>
+        <v>1.007045033390737</v>
       </c>
       <c r="E18">
-        <v>1.040597399782303</v>
+        <v>0.9882736412724299</v>
       </c>
       <c r="F18">
-        <v>1.057910043678906</v>
+        <v>1.011955535145509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041472689712921</v>
+        <v>1.042252169882266</v>
       </c>
       <c r="J18">
-        <v>1.048593047799275</v>
+        <v>1.006964146992034</v>
       </c>
       <c r="K18">
-        <v>1.051400130296418</v>
+        <v>1.020743258435254</v>
       </c>
       <c r="L18">
-        <v>1.04390560073675</v>
+        <v>1.002297904170533</v>
       </c>
       <c r="M18">
-        <v>1.061160343041236</v>
+        <v>1.025571042919071</v>
       </c>
       <c r="N18">
-        <v>1.050082170202454</v>
+        <v>1.008394151581165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042652781655352</v>
+        <v>0.9797759448401476</v>
       </c>
       <c r="D19">
-        <v>1.048208270710544</v>
+        <v>1.007565706133876</v>
       </c>
       <c r="E19">
-        <v>1.040700672803077</v>
+        <v>0.9888475196805139</v>
       </c>
       <c r="F19">
-        <v>1.058011324641948</v>
+        <v>1.012522536674452</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041505344139166</v>
+        <v>1.042494416398174</v>
       </c>
       <c r="J19">
-        <v>1.048685038790039</v>
+        <v>1.007486143406422</v>
       </c>
       <c r="K19">
-        <v>1.051476641975368</v>
+        <v>1.021191261360498</v>
       </c>
       <c r="L19">
-        <v>1.043994289660612</v>
+        <v>1.002795982970558</v>
       </c>
       <c r="M19">
-        <v>1.061247322919107</v>
+        <v>1.026065156507755</v>
       </c>
       <c r="N19">
-        <v>1.050174291830976</v>
+        <v>1.008916889290334</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042118283532523</v>
+        <v>0.9766774473606959</v>
       </c>
       <c r="D20">
-        <v>1.047801469431117</v>
+        <v>1.005224195734216</v>
       </c>
       <c r="E20">
-        <v>1.040238707152225</v>
+        <v>0.9862668636922193</v>
       </c>
       <c r="F20">
-        <v>1.057558267300921</v>
+        <v>1.009973003582485</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041359121252323</v>
+        <v>1.041403727050924</v>
       </c>
       <c r="J20">
-        <v>1.048273475099207</v>
+        <v>1.005137992327938</v>
       </c>
       <c r="K20">
-        <v>1.051134292331282</v>
+        <v>1.019175801789182</v>
       </c>
       <c r="L20">
-        <v>1.043597506187009</v>
+        <v>1.000555569999932</v>
       </c>
       <c r="M20">
-        <v>1.060858180905226</v>
+        <v>1.023842727609652</v>
       </c>
       <c r="N20">
-        <v>1.049762143672496</v>
+        <v>1.006565403567983</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040378203955252</v>
+        <v>0.9662723253179869</v>
       </c>
       <c r="D21">
-        <v>1.046476667665801</v>
+        <v>0.997372434021977</v>
       </c>
       <c r="E21">
-        <v>1.038734948597391</v>
+        <v>0.9776150800975274</v>
       </c>
       <c r="F21">
-        <v>1.056083462600866</v>
+        <v>1.001429510174445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040880483533537</v>
+        <v>1.037723352397128</v>
       </c>
       <c r="J21">
-        <v>1.04693263235646</v>
+        <v>0.9972511484205582</v>
       </c>
       <c r="K21">
-        <v>1.050018247220348</v>
+        <v>1.012403758024052</v>
       </c>
       <c r="L21">
-        <v>1.042304937977349</v>
+        <v>0.9930333248205909</v>
       </c>
       <c r="M21">
-        <v>1.059590427228905</v>
+        <v>1.016383850563943</v>
       </c>
       <c r="N21">
-        <v>1.048419396779257</v>
+        <v>0.998667359437621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039282277736448</v>
+        <v>0.9594523723471773</v>
       </c>
       <c r="D22">
-        <v>1.04564195527727</v>
+        <v>0.9922362947710757</v>
       </c>
       <c r="E22">
-        <v>1.037788010077768</v>
+        <v>0.9719566478491874</v>
       </c>
       <c r="F22">
-        <v>1.055154726511083</v>
+        <v>0.9958454836879883</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04057703699608</v>
+        <v>1.035298150119689</v>
       </c>
       <c r="J22">
-        <v>1.046087401723353</v>
+        <v>0.9920814865311933</v>
       </c>
       <c r="K22">
-        <v>1.049314191060404</v>
+        <v>1.007963137214292</v>
       </c>
       <c r="L22">
-        <v>1.041490231886776</v>
+        <v>0.9881048989617486</v>
       </c>
       <c r="M22">
-        <v>1.058791304689992</v>
+        <v>1.011499694082905</v>
       </c>
       <c r="N22">
-        <v>1.047572965821702</v>
+        <v>0.9934903560354048</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039863429317034</v>
+        <v>0.9630957389159243</v>
       </c>
       <c r="D23">
-        <v>1.046084620669507</v>
+        <v>0.9949790730312258</v>
       </c>
       <c r="E23">
-        <v>1.038290141476147</v>
+        <v>0.9749782719725479</v>
       </c>
       <c r="F23">
-        <v>1.055647208384163</v>
+        <v>0.9988270034946021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040738138423937</v>
+        <v>1.036594902362161</v>
       </c>
       <c r="J23">
-        <v>1.046535684369782</v>
+        <v>0.994843201442671</v>
       </c>
       <c r="K23">
-        <v>1.049687649612008</v>
+        <v>1.010335521226807</v>
       </c>
       <c r="L23">
-        <v>1.041922316435048</v>
+        <v>0.9907375222008945</v>
       </c>
       <c r="M23">
-        <v>1.059215129608161</v>
+        <v>1.014108382338212</v>
       </c>
       <c r="N23">
-        <v>1.048021885080908</v>
+        <v>0.9962559928988296</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042147425221936</v>
+        <v>0.9768475259586311</v>
       </c>
       <c r="D24">
-        <v>1.04782365057624</v>
+        <v>1.005352684483755</v>
       </c>
       <c r="E24">
-        <v>1.04026389355661</v>
+        <v>0.9864084673427443</v>
       </c>
       <c r="F24">
-        <v>1.057582968197432</v>
+        <v>1.010112886105171</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0413671033724</v>
+        <v>1.041463662872051</v>
       </c>
       <c r="J24">
-        <v>1.048295917911318</v>
+        <v>1.005266891295842</v>
       </c>
       <c r="K24">
-        <v>1.051152963488832</v>
+        <v>1.019286448540748</v>
       </c>
       <c r="L24">
-        <v>1.043619142567273</v>
+        <v>1.000678545028509</v>
       </c>
       <c r="M24">
-        <v>1.06087940090411</v>
+        <v>1.023964705496031</v>
       </c>
       <c r="N24">
-        <v>1.049784618355975</v>
+        <v>1.006694485587206</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044790054452863</v>
+        <v>0.9917423829496692</v>
       </c>
       <c r="D25">
-        <v>1.049834249553238</v>
+        <v>1.016621584535958</v>
       </c>
       <c r="E25">
-        <v>1.04254818261813</v>
+        <v>0.9988319350912547</v>
       </c>
       <c r="F25">
-        <v>1.05982313417959</v>
+        <v>1.022391051103705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04208615584652</v>
+        <v>1.046679934815441</v>
       </c>
       <c r="J25">
-        <v>1.050329271093771</v>
+        <v>1.016550880796614</v>
       </c>
       <c r="K25">
-        <v>1.052843316668414</v>
+        <v>1.028967237260194</v>
       </c>
       <c r="L25">
-        <v>1.045579654215102</v>
+        <v>1.011448410865527</v>
       </c>
       <c r="M25">
-        <v>1.062802031343123</v>
+        <v>1.034651441403378</v>
       </c>
       <c r="N25">
-        <v>1.051820859133176</v>
+        <v>1.017994499647361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002899429936861</v>
+        <v>1.023262543039476</v>
       </c>
       <c r="D2">
-        <v>1.025080968524962</v>
+        <v>1.037953303324777</v>
       </c>
       <c r="E2">
-        <v>1.008165873410667</v>
+        <v>1.035135689317179</v>
       </c>
       <c r="F2">
-        <v>1.03162220833709</v>
+        <v>1.04317288865765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050537343410335</v>
+        <v>1.057811596397428</v>
       </c>
       <c r="J2">
-        <v>1.024993764049132</v>
+        <v>1.044769059949766</v>
       </c>
       <c r="K2">
-        <v>1.036201603269465</v>
+        <v>1.04890804708682</v>
       </c>
       <c r="L2">
-        <v>1.019512604928442</v>
+        <v>1.046126304054035</v>
       </c>
       <c r="M2">
-        <v>1.042657896414061</v>
+        <v>1.054061820421858</v>
       </c>
       <c r="N2">
-        <v>1.02644937276251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018377736597809</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051358614720041</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045652480381523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010636307921861</v>
+        <v>1.027168655319704</v>
       </c>
       <c r="D3">
-        <v>1.030954447400221</v>
+        <v>1.040591209628196</v>
       </c>
       <c r="E3">
-        <v>1.014652131752343</v>
+        <v>1.038209246828069</v>
       </c>
       <c r="F3">
-        <v>1.038039558288292</v>
+        <v>1.046099094010885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053181641478434</v>
+        <v>1.059006744844281</v>
       </c>
       <c r="J3">
-        <v>1.030841157082595</v>
+        <v>1.046945113019631</v>
       </c>
       <c r="K3">
-        <v>1.041206006499409</v>
+        <v>1.050729782021118</v>
       </c>
       <c r="L3">
-        <v>1.025100906511586</v>
+        <v>1.048375505317434</v>
       </c>
       <c r="M3">
-        <v>1.048207795101817</v>
+        <v>1.056174242965325</v>
       </c>
       <c r="N3">
-        <v>1.032305069764786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019139122092062</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053030428973315</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046937942294703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015489745015561</v>
+        <v>1.029650649211992</v>
       </c>
       <c r="D4">
-        <v>1.034641375477761</v>
+        <v>1.042270862410863</v>
       </c>
       <c r="E4">
-        <v>1.018726596411558</v>
+        <v>1.040167993565881</v>
       </c>
       <c r="F4">
-        <v>1.04207156252016</v>
+        <v>1.047966313396472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05482572837826</v>
+        <v>1.059757123867622</v>
       </c>
       <c r="J4">
-        <v>1.034505352840605</v>
+        <v>1.048325140742844</v>
       </c>
       <c r="K4">
-        <v>1.044338941534783</v>
+        <v>1.051884540200081</v>
       </c>
       <c r="L4">
-        <v>1.028604141897058</v>
+        <v>1.049804642097502</v>
       </c>
       <c r="M4">
-        <v>1.051687412485604</v>
+        <v>1.057518344253535</v>
       </c>
       <c r="N4">
-        <v>1.035974469101061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019621910891837</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054094176195847</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047755326340877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017495637908933</v>
+        <v>1.03068757357576</v>
       </c>
       <c r="D5">
-        <v>1.036165610021126</v>
+        <v>1.042975599191588</v>
       </c>
       <c r="E5">
-        <v>1.02041177876647</v>
+        <v>1.04098800096767</v>
       </c>
       <c r="F5">
-        <v>1.043739335575702</v>
+        <v>1.048747694335045</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055501609819568</v>
+        <v>1.060070043354837</v>
       </c>
       <c r="J5">
-        <v>1.036018718190359</v>
+        <v>1.048902732439217</v>
       </c>
       <c r="K5">
-        <v>1.045632131930342</v>
+        <v>1.052369295885147</v>
       </c>
       <c r="L5">
-        <v>1.030051353564639</v>
+        <v>1.050402832244143</v>
       </c>
       <c r="M5">
-        <v>1.053124937478639</v>
+        <v>1.058080570012661</v>
       </c>
       <c r="N5">
-        <v>1.037489983603197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019824850090032</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.054539131868924</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048105175766601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017830471178941</v>
+        <v>1.030866015245307</v>
       </c>
       <c r="D6">
-        <v>1.036420065550509</v>
+        <v>1.043099601784335</v>
       </c>
       <c r="E6">
-        <v>1.020693147288121</v>
+        <v>1.04112959566511</v>
       </c>
       <c r="F6">
-        <v>1.044017805004753</v>
+        <v>1.048881589716748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055614216747671</v>
+        <v>1.060125746831092</v>
       </c>
       <c r="J6">
-        <v>1.036271274177168</v>
+        <v>1.049004169321216</v>
       </c>
       <c r="K6">
-        <v>1.045847898842891</v>
+        <v>1.052456341415506</v>
       </c>
       <c r="L6">
-        <v>1.030292888449671</v>
+        <v>1.050507186993627</v>
       </c>
       <c r="M6">
-        <v>1.053364858713489</v>
+        <v>1.05817768189505</v>
       </c>
       <c r="N6">
-        <v>1.037742898248476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01986157792393</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.054615987949274</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.0481753727745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015516680744614</v>
+        <v>1.029677877171983</v>
       </c>
       <c r="D7">
-        <v>1.034661841730026</v>
+        <v>1.042296535739888</v>
       </c>
       <c r="E7">
-        <v>1.018749220786713</v>
+        <v>1.040190624609445</v>
       </c>
       <c r="F7">
-        <v>1.042093952623368</v>
+        <v>1.047985005822468</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054834818702131</v>
+        <v>1.059770668587235</v>
       </c>
       <c r="J7">
-        <v>1.034525678905126</v>
+        <v>1.048345900340577</v>
       </c>
       <c r="K7">
-        <v>1.044356313461591</v>
+        <v>1.051907094456004</v>
       </c>
       <c r="L7">
-        <v>1.028623578173225</v>
+        <v>1.049824178343434</v>
       </c>
       <c r="M7">
-        <v>1.051706718440939</v>
+        <v>1.057534016820921</v>
       </c>
       <c r="N7">
-        <v>1.035994824030925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019632174991523</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054106579753756</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047791171015915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005547113261447</v>
+        <v>1.02460901422295</v>
       </c>
       <c r="D8">
-        <v>1.027090372152513</v>
+        <v>1.038870743449751</v>
       </c>
       <c r="E8">
-        <v>1.010384337308034</v>
+        <v>1.036195467837482</v>
       </c>
       <c r="F8">
-        <v>1.03381690026969</v>
+        <v>1.044177724251079</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051445322109197</v>
+        <v>1.058231955168629</v>
       </c>
       <c r="J8">
-        <v>1.026995620162016</v>
+        <v>1.045526672022565</v>
       </c>
       <c r="K8">
-        <v>1.037915476597149</v>
+        <v>1.049548721215339</v>
       </c>
       <c r="L8">
-        <v>1.021425459669835</v>
+        <v>1.046906491874137</v>
       </c>
       <c r="M8">
-        <v>1.044557484451484</v>
+        <v>1.054790770450796</v>
       </c>
       <c r="N8">
-        <v>1.02845407174069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018646747501666</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051935521049496</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046128164322973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9867038568500733</v>
+        <v>1.015291428511933</v>
       </c>
       <c r="D9">
-        <v>1.012806183210118</v>
+        <v>1.032591463581784</v>
       </c>
       <c r="E9">
-        <v>0.9946245253504101</v>
+        <v>1.028897049482304</v>
       </c>
       <c r="F9">
-        <v>1.018231653529654</v>
+        <v>1.037246345399261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923107678386</v>
+        <v>1.055325001028063</v>
       </c>
       <c r="J9">
-        <v>1.012735033898516</v>
+        <v>1.040315526842181</v>
       </c>
       <c r="K9">
-        <v>1.025694850538442</v>
+        <v>1.04517700645491</v>
       </c>
       <c r="L9">
-        <v>1.007805422130301</v>
+        <v>1.041538066025892</v>
       </c>
       <c r="M9">
-        <v>1.031035701479503</v>
+        <v>1.049762707521887</v>
       </c>
       <c r="N9">
-        <v>1.014173233808984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016819778310564</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047956197614356</v>
+      </c>
+      <c r="Q9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R9">
+        <v>1.043033977123337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9731174135522739</v>
+        <v>1.008894096276849</v>
       </c>
       <c r="D10">
-        <v>1.002535759668058</v>
+        <v>1.028313794240337</v>
       </c>
       <c r="E10">
-        <v>0.9833042100959156</v>
+        <v>1.023969139602589</v>
       </c>
       <c r="F10">
-        <v>1.007046727020954</v>
+        <v>1.032636929056072</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040147453179036</v>
+        <v>1.05330997761277</v>
       </c>
       <c r="J10">
-        <v>1.002439758072741</v>
+        <v>1.036759226492076</v>
       </c>
       <c r="K10">
-        <v>1.016859380630163</v>
+        <v>1.042189984067342</v>
       </c>
       <c r="L10">
-        <v>0.9979816003913109</v>
+        <v>1.037918702137087</v>
       </c>
       <c r="M10">
-        <v>1.02128990565425</v>
+        <v>1.046440898784184</v>
       </c>
       <c r="N10">
-        <v>1.003863337510651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015587114867893</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045378242165849</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040938673975491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9669471857530739</v>
+        <v>1.006695671938747</v>
       </c>
       <c r="D11">
-        <v>0.9978811311105901</v>
+        <v>1.026929373205097</v>
       </c>
       <c r="E11">
-        <v>0.9781755398911124</v>
+        <v>1.022673949563356</v>
       </c>
       <c r="F11">
-        <v>1.001982760308661</v>
+        <v>1.031896022183601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037962815844758</v>
+        <v>1.052804976700091</v>
       </c>
       <c r="J11">
-        <v>0.9977627123405505</v>
+        <v>1.035792531815021</v>
       </c>
       <c r="K11">
-        <v>1.012843117125548</v>
+        <v>1.041360703192391</v>
       </c>
       <c r="L11">
-        <v>0.9935211134136367</v>
+        <v>1.037180572088222</v>
       </c>
       <c r="M11">
-        <v>1.016867381293449</v>
+        <v>1.04624049227096</v>
       </c>
       <c r="N11">
-        <v>0.9991796498370566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01536517050877</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045652270062893</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040384948332773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9646077279891963</v>
+        <v>1.006092027333017</v>
       </c>
       <c r="D12">
-        <v>0.9961180369848586</v>
+        <v>1.026579457201421</v>
       </c>
       <c r="E12">
-        <v>0.9762330713923769</v>
+        <v>1.02249700670343</v>
       </c>
       <c r="F12">
-        <v>1.000065400324717</v>
+        <v>1.032077445350156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037132281974896</v>
+        <v>1.052750010871878</v>
       </c>
       <c r="J12">
-        <v>0.9959893322850937</v>
+        <v>1.035640780846211</v>
       </c>
       <c r="K12">
-        <v>1.011319989106229</v>
+        <v>1.04121455835966</v>
       </c>
       <c r="L12">
-        <v>0.9918302268509234</v>
+        <v>1.037205529120206</v>
       </c>
       <c r="M12">
-        <v>1.015191347474806</v>
+        <v>1.0466148575163</v>
       </c>
       <c r="N12">
-        <v>0.9974037513785117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015399241087192</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046272259986991</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040281620600767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.965111779549402</v>
+        <v>1.006693146747544</v>
       </c>
       <c r="D13">
-        <v>0.9964978248863133</v>
+        <v>1.027021899151004</v>
       </c>
       <c r="E13">
-        <v>0.976651491398503</v>
+        <v>1.023185893609005</v>
       </c>
       <c r="F13">
-        <v>1.00047838294239</v>
+        <v>1.033005599841804</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037311323670265</v>
+        <v>1.053054273942476</v>
       </c>
       <c r="J13">
-        <v>0.9963714189291283</v>
+        <v>1.036125321633654</v>
       </c>
       <c r="K13">
-        <v>1.011648169438646</v>
+        <v>1.041606728801041</v>
       </c>
       <c r="L13">
-        <v>0.992194522082531</v>
+        <v>1.037839383510078</v>
       </c>
       <c r="M13">
-        <v>1.015552420497959</v>
+        <v>1.047484647151284</v>
       </c>
       <c r="N13">
-        <v>0.9977863806294066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015643287078829</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04723470499496</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040556419720871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9667548034123479</v>
+        <v>1.007657495373872</v>
       </c>
       <c r="D14">
-        <v>0.9977361087630929</v>
+        <v>1.027690072488767</v>
       </c>
       <c r="E14">
-        <v>0.9780157599670005</v>
+        <v>1.024055811392873</v>
       </c>
       <c r="F14">
-        <v>1.001825032906289</v>
+        <v>1.033988739319971</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037894562074762</v>
+        <v>1.053428552114803</v>
       </c>
       <c r="J14">
-        <v>0.997616881047955</v>
+        <v>1.036750351361523</v>
       </c>
       <c r="K14">
-        <v>1.012717870510538</v>
+        <v>1.042124338255636</v>
       </c>
       <c r="L14">
-        <v>0.9933820579693989</v>
+        <v>1.038554288677628</v>
       </c>
       <c r="M14">
-        <v>1.016729537452437</v>
+        <v>1.048313101022391</v>
       </c>
       <c r="N14">
-        <v>0.9990336114472987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015908344707428</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048061809551237</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040923795592355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9677606798222734</v>
+        <v>1.008162975298482</v>
       </c>
       <c r="D15">
-        <v>0.9984944336928229</v>
+        <v>1.028034341756439</v>
       </c>
       <c r="E15">
-        <v>0.9788512595626214</v>
+        <v>1.024469792742129</v>
       </c>
       <c r="F15">
-        <v>1.002649824806431</v>
+        <v>1.034412011211435</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038251339460724</v>
+        <v>1.053604757975212</v>
       </c>
       <c r="J15">
-        <v>0.998379362310022</v>
+        <v>1.037051005012424</v>
       </c>
       <c r="K15">
-        <v>1.013372712895388</v>
+        <v>1.042377150471775</v>
       </c>
       <c r="L15">
-        <v>0.994109127247176</v>
+        <v>1.038875092297453</v>
       </c>
       <c r="M15">
-        <v>1.017450290969616</v>
+        <v>1.048644400845136</v>
       </c>
       <c r="N15">
-        <v>0.9997971755202156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016023409396525</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048360986740891</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041108365790785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9735204975592198</v>
+        <v>1.010755237734431</v>
       </c>
       <c r="D16">
-        <v>1.002840055032133</v>
+        <v>1.029760864532036</v>
       </c>
       <c r="E16">
-        <v>0.9836395258691631</v>
+        <v>1.026427913191267</v>
       </c>
       <c r="F16">
-        <v>1.007377889893399</v>
+        <v>1.036221536217137</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040289855356875</v>
+        <v>1.054415663290144</v>
       </c>
       <c r="J16">
-        <v>1.002745278619666</v>
+        <v>1.038473098231746</v>
       </c>
       <c r="K16">
-        <v>1.017121692463896</v>
+        <v>1.043577630199068</v>
       </c>
       <c r="L16">
-        <v>0.9982730257156224</v>
+        <v>1.040300526961831</v>
       </c>
       <c r="M16">
-        <v>1.021578909660992</v>
+        <v>1.049931360434158</v>
       </c>
       <c r="N16">
-        <v>1.004169291931798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016502129704642</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049339724742265</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041960275537819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.977053660011905</v>
+        <v>1.012242376585767</v>
       </c>
       <c r="D17">
-        <v>1.005508417974963</v>
+        <v>1.030739018346108</v>
       </c>
       <c r="E17">
-        <v>0.9865800978164433</v>
+        <v>1.02747779175353</v>
       </c>
       <c r="F17">
-        <v>1.010282432597791</v>
+        <v>1.037091202703858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041536294387358</v>
+        <v>1.054840580528688</v>
       </c>
       <c r="J17">
-        <v>1.005423114869083</v>
+        <v>1.039238093512973</v>
       </c>
       <c r="K17">
-        <v>1.019420549123351</v>
+        <v>1.044228724563146</v>
       </c>
       <c r="L17">
-        <v>1.000827590397338</v>
+        <v>1.041020598585775</v>
       </c>
       <c r="M17">
-        <v>1.024112543913332</v>
+        <v>1.050478709078137</v>
       </c>
       <c r="N17">
-        <v>1.006850931015841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016731178174565</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049644184651147</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042423182331818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9790871110860346</v>
+        <v>1.012894676204384</v>
       </c>
       <c r="D18">
-        <v>1.007045033390737</v>
+        <v>1.03113862997722</v>
       </c>
       <c r="E18">
-        <v>0.9882736412724299</v>
+        <v>1.027799512245685</v>
       </c>
       <c r="F18">
-        <v>1.011955535145509</v>
+        <v>1.037163483020285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042252169882266</v>
+        <v>1.054954167322766</v>
       </c>
       <c r="J18">
-        <v>1.006964146992034</v>
+        <v>1.039479235867091</v>
       </c>
       <c r="K18">
-        <v>1.020743258435254</v>
+        <v>1.044440677898921</v>
       </c>
       <c r="L18">
-        <v>1.002297904170533</v>
+        <v>1.04115504363327</v>
       </c>
       <c r="M18">
-        <v>1.025571042919071</v>
+        <v>1.050370144251253</v>
       </c>
       <c r="N18">
-        <v>1.008394151581165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016751304007687</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049322443023212</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042561497225409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9797759448401476</v>
+        <v>1.012798939988438</v>
       </c>
       <c r="D19">
-        <v>1.007565706133876</v>
+        <v>1.031028638759495</v>
       </c>
       <c r="E19">
-        <v>0.9888475196805139</v>
+        <v>1.027460531795901</v>
       </c>
       <c r="F19">
-        <v>1.012522536674452</v>
+        <v>1.036504100571626</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042494416398174</v>
+        <v>1.054794139479507</v>
       </c>
       <c r="J19">
-        <v>1.007486143406422</v>
+        <v>1.039255134377872</v>
       </c>
       <c r="K19">
-        <v>1.021191261360498</v>
+        <v>1.0442706504604</v>
       </c>
       <c r="L19">
-        <v>1.002795982970558</v>
+        <v>1.04075942231025</v>
       </c>
       <c r="M19">
-        <v>1.026065156507755</v>
+        <v>1.049659802583799</v>
       </c>
       <c r="N19">
-        <v>1.008916889290334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016593362331737</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048437955496238</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042447626837993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9766774473606959</v>
+        <v>1.010589220028057</v>
       </c>
       <c r="D20">
-        <v>1.005224195734216</v>
+        <v>1.029463741990077</v>
       </c>
       <c r="E20">
-        <v>0.9862668636922193</v>
+        <v>1.025278541525671</v>
       </c>
       <c r="F20">
-        <v>1.009973003582485</v>
+        <v>1.033856495125435</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041403727050924</v>
+        <v>1.053860922638246</v>
       </c>
       <c r="J20">
-        <v>1.005137992327938</v>
+        <v>1.037717960591737</v>
       </c>
       <c r="K20">
-        <v>1.019175801789182</v>
+        <v>1.043007563685769</v>
       </c>
       <c r="L20">
-        <v>1.000555569999932</v>
+        <v>1.038890999373817</v>
       </c>
       <c r="M20">
-        <v>1.023842727609652</v>
+        <v>1.047329044012959</v>
       </c>
       <c r="N20">
-        <v>1.006565403567983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015928978428733</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046070647671078</v>
+      </c>
+      <c r="Q20">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R20">
+        <v>1.041558482306901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9662723253179869</v>
+        <v>1.005659151955035</v>
       </c>
       <c r="D21">
-        <v>0.997372434021977</v>
+        <v>1.026157174802633</v>
       </c>
       <c r="E21">
-        <v>0.9776150800975274</v>
+        <v>1.021417727601137</v>
       </c>
       <c r="F21">
-        <v>1.001429510174445</v>
+        <v>1.030159441916335</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037723352397128</v>
+        <v>1.052252949484825</v>
       </c>
       <c r="J21">
-        <v>0.9972511484205582</v>
+        <v>1.034922157147626</v>
       </c>
       <c r="K21">
-        <v>1.012403758024052</v>
+        <v>1.04065937718779</v>
       </c>
       <c r="L21">
-        <v>0.9930333248205909</v>
+        <v>1.036004386473073</v>
       </c>
       <c r="M21">
-        <v>1.016383850563943</v>
+        <v>1.044591108475015</v>
       </c>
       <c r="N21">
-        <v>0.998667359437621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014938262654709</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043863254118466</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039901459450045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9594523723471773</v>
+        <v>1.002520206326532</v>
       </c>
       <c r="D22">
-        <v>0.9922362947710757</v>
+        <v>1.024055061959857</v>
       </c>
       <c r="E22">
-        <v>0.9719566478491874</v>
+        <v>1.018990254912672</v>
       </c>
       <c r="F22">
-        <v>0.9958454836879883</v>
+        <v>1.027870303900239</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035298150119689</v>
+        <v>1.051227325229592</v>
       </c>
       <c r="J22">
-        <v>0.9920814865311933</v>
+        <v>1.033150182015516</v>
       </c>
       <c r="K22">
-        <v>1.007963137214292</v>
+        <v>1.03916458511115</v>
       </c>
       <c r="L22">
-        <v>0.9881048989617486</v>
+        <v>1.034194670329506</v>
       </c>
       <c r="M22">
-        <v>1.011499694082905</v>
+        <v>1.042909150906439</v>
       </c>
       <c r="N22">
-        <v>0.9934903560354048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014313002541382</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042532102432044</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038831177265011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C23">
-        <v>0.9630957389159243</v>
+        <v>1.00417757222318</v>
       </c>
       <c r="D23">
-        <v>0.9949790730312258</v>
+        <v>1.025158101797388</v>
       </c>
       <c r="E23">
-        <v>0.9749782719725479</v>
+        <v>1.020269677241703</v>
       </c>
       <c r="F23">
-        <v>0.9988270034946021</v>
+        <v>1.029079295791336</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036594902362161</v>
+        <v>1.051765232290603</v>
       </c>
       <c r="J23">
-        <v>0.994843201442671</v>
+        <v>1.034080884971991</v>
       </c>
       <c r="K23">
-        <v>1.010335521226807</v>
+        <v>1.039945454669062</v>
       </c>
       <c r="L23">
-        <v>0.9907375222008945</v>
+        <v>1.035146236316394</v>
       </c>
       <c r="M23">
-        <v>1.014108382338212</v>
+        <v>1.043795888797094</v>
       </c>
       <c r="N23">
-        <v>0.9962559928988296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014638056155654</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043233893708398</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039373705323712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9768475259586311</v>
+        <v>1.010589046925367</v>
       </c>
       <c r="D24">
-        <v>1.005352684483755</v>
+        <v>1.029446393499759</v>
       </c>
       <c r="E24">
-        <v>0.9864084673427443</v>
+        <v>1.025238192758627</v>
       </c>
       <c r="F24">
-        <v>1.010112886105171</v>
+        <v>1.033776146584187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041463662872051</v>
+        <v>1.053835097254378</v>
       </c>
       <c r="J24">
-        <v>1.005266891295842</v>
+        <v>1.037685486279684</v>
       </c>
       <c r="K24">
-        <v>1.019286448540748</v>
+        <v>1.042975404832843</v>
       </c>
       <c r="L24">
-        <v>1.000678545028509</v>
+        <v>1.038836134143016</v>
       </c>
       <c r="M24">
-        <v>1.023964705496031</v>
+        <v>1.047234988527011</v>
       </c>
       <c r="N24">
-        <v>1.006694485587206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015902569557227</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045955695216141</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041508547153874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9917423829496692</v>
+        <v>1.017767267961052</v>
       </c>
       <c r="D25">
-        <v>1.016621584535958</v>
+        <v>1.034267373267486</v>
       </c>
       <c r="E25">
-        <v>0.9988319350912547</v>
+        <v>1.030832712773528</v>
       </c>
       <c r="F25">
-        <v>1.022391051103705</v>
+        <v>1.039077685763113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046679934815441</v>
+        <v>1.056113447356854</v>
       </c>
       <c r="J25">
-        <v>1.016550880796614</v>
+        <v>1.041711138440169</v>
       </c>
       <c r="K25">
-        <v>1.028967237260194</v>
+        <v>1.046356042113061</v>
       </c>
       <c r="L25">
-        <v>1.011448410865527</v>
+        <v>1.042970528803527</v>
       </c>
       <c r="M25">
-        <v>1.034651441403378</v>
+        <v>1.051098213134197</v>
       </c>
       <c r="N25">
-        <v>1.017994499647361</v>
+        <v>1.017314346559273</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049013149223429</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04389595322751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023262543039476</v>
+        <v>1.021691483353471</v>
       </c>
       <c r="D2">
-        <v>1.037953303324777</v>
+        <v>1.035719398734792</v>
       </c>
       <c r="E2">
-        <v>1.035135689317179</v>
+        <v>1.033936800862889</v>
       </c>
       <c r="F2">
-        <v>1.04317288865765</v>
+        <v>1.042272869888586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057811596397428</v>
+        <v>1.056581055925376</v>
       </c>
       <c r="J2">
-        <v>1.044769059949766</v>
+        <v>1.043242212069055</v>
       </c>
       <c r="K2">
-        <v>1.04890804708682</v>
+        <v>1.046702562257549</v>
       </c>
       <c r="L2">
-        <v>1.046126304054035</v>
+        <v>1.044942752725695</v>
       </c>
       <c r="M2">
-        <v>1.054061820421858</v>
+        <v>1.053173091033609</v>
       </c>
       <c r="N2">
-        <v>1.018377736597809</v>
+        <v>1.018382483760031</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051358614720041</v>
+        <v>1.050655255056492</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045652480381523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044101734660769</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024338677389886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027168655319704</v>
+        <v>1.025397326325492</v>
       </c>
       <c r="D3">
-        <v>1.040591209628196</v>
+        <v>1.038119304256767</v>
       </c>
       <c r="E3">
-        <v>1.038209246828069</v>
+        <v>1.036847190333967</v>
       </c>
       <c r="F3">
-        <v>1.046099094010885</v>
+        <v>1.045082168380937</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059006744844281</v>
+        <v>1.057635210969596</v>
       </c>
       <c r="J3">
-        <v>1.046945113019631</v>
+        <v>1.04521879042288</v>
       </c>
       <c r="K3">
-        <v>1.050729782021118</v>
+        <v>1.048286611247455</v>
       </c>
       <c r="L3">
-        <v>1.048375505317434</v>
+        <v>1.047029351032067</v>
       </c>
       <c r="M3">
-        <v>1.056174242965325</v>
+        <v>1.055168965144917</v>
       </c>
       <c r="N3">
-        <v>1.019139122092062</v>
+        <v>1.018925991414672</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053030428973315</v>
+        <v>1.052234832081619</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046937942294703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045218858946109</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024669635994114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029650649211992</v>
+        <v>1.027753400525406</v>
       </c>
       <c r="D4">
-        <v>1.042270862410863</v>
+        <v>1.039648603739527</v>
       </c>
       <c r="E4">
-        <v>1.040167993565881</v>
+        <v>1.038703328266884</v>
       </c>
       <c r="F4">
-        <v>1.047966313396472</v>
+        <v>1.046875912255462</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059757123867622</v>
+        <v>1.058296409178461</v>
       </c>
       <c r="J4">
-        <v>1.048325140742844</v>
+        <v>1.04647286279498</v>
       </c>
       <c r="K4">
-        <v>1.051884540200081</v>
+        <v>1.049290943414006</v>
       </c>
       <c r="L4">
-        <v>1.049804642097502</v>
+        <v>1.048356043609594</v>
       </c>
       <c r="M4">
-        <v>1.057518344253535</v>
+        <v>1.056439681848284</v>
       </c>
       <c r="N4">
-        <v>1.019621910891837</v>
+        <v>1.019270934478866</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054094176195847</v>
+        <v>1.053240502452546</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047755326340877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045929964684692</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024877149382561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03068757357576</v>
+        <v>1.028737820147048</v>
       </c>
       <c r="D5">
-        <v>1.042975599191588</v>
+        <v>1.040290633613179</v>
       </c>
       <c r="E5">
-        <v>1.04098800096767</v>
+        <v>1.03948050664596</v>
       </c>
       <c r="F5">
-        <v>1.048747694335045</v>
+        <v>1.04762664062704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060070043354837</v>
+        <v>1.058572077521825</v>
       </c>
       <c r="J5">
-        <v>1.048902732439217</v>
+        <v>1.046997824717455</v>
       </c>
       <c r="K5">
-        <v>1.052369295885147</v>
+        <v>1.049712903589622</v>
       </c>
       <c r="L5">
-        <v>1.050402832244143</v>
+        <v>1.048911433458966</v>
       </c>
       <c r="M5">
-        <v>1.058080570012661</v>
+        <v>1.05697126483526</v>
       </c>
       <c r="N5">
-        <v>1.019824850090032</v>
+        <v>1.019415970807116</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054539131868924</v>
+        <v>1.05366120736088</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048105175766601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046236128687561</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024964472599086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030866015245307</v>
+        <v>1.028906998261616</v>
       </c>
       <c r="D6">
-        <v>1.043099601784335</v>
+        <v>1.04040374124353</v>
       </c>
       <c r="E6">
-        <v>1.04112959566511</v>
+        <v>1.039614490704102</v>
       </c>
       <c r="F6">
-        <v>1.048881589716748</v>
+        <v>1.047755099063633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060125746831092</v>
+        <v>1.05862127010052</v>
       </c>
       <c r="J6">
-        <v>1.049004169321216</v>
+        <v>1.04708998117444</v>
       </c>
       <c r="K6">
-        <v>1.052456341415506</v>
+        <v>1.049789039803833</v>
       </c>
       <c r="L6">
-        <v>1.050507186993627</v>
+        <v>1.049008184596368</v>
       </c>
       <c r="M6">
-        <v>1.05817768189505</v>
+        <v>1.057062942899862</v>
       </c>
       <c r="N6">
-        <v>1.01986157792393</v>
+        <v>1.019442182891798</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054615987949274</v>
+        <v>1.053733763104988</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.0481753727745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046299485785915</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024981049121594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029677877171983</v>
+        <v>1.027787524593967</v>
       </c>
       <c r="D7">
-        <v>1.042296535739888</v>
+        <v>1.039678960184375</v>
       </c>
       <c r="E7">
-        <v>1.040190624609445</v>
+        <v>1.038731680952335</v>
       </c>
       <c r="F7">
-        <v>1.047985005822468</v>
+        <v>1.046898610395051</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059770668587235</v>
+        <v>1.058313482731319</v>
       </c>
       <c r="J7">
-        <v>1.048345900340577</v>
+        <v>1.046500335190963</v>
       </c>
       <c r="K7">
-        <v>1.051907094456004</v>
+        <v>1.04931811819602</v>
       </c>
       <c r="L7">
-        <v>1.049824178343434</v>
+        <v>1.04838123244645</v>
       </c>
       <c r="M7">
-        <v>1.057534016820921</v>
+        <v>1.056459312557592</v>
       </c>
       <c r="N7">
-        <v>1.019632174991523</v>
+        <v>1.019307060277697</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054106579753756</v>
+        <v>1.053256038574238</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047791171015915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045971086037702</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024886124662406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02460901422295</v>
+        <v>1.022995224260576</v>
       </c>
       <c r="D8">
-        <v>1.038870743449751</v>
+        <v>1.036574660109565</v>
       </c>
       <c r="E8">
-        <v>1.036195467837482</v>
+        <v>1.03496246046234</v>
       </c>
       <c r="F8">
-        <v>1.044177724251079</v>
+        <v>1.043252914713067</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058231955168629</v>
+        <v>1.056967063769452</v>
       </c>
       <c r="J8">
-        <v>1.045526672022565</v>
+        <v>1.043956780571974</v>
       </c>
       <c r="K8">
-        <v>1.049548721215339</v>
+        <v>1.047280987265836</v>
       </c>
       <c r="L8">
-        <v>1.046906491874137</v>
+        <v>1.045688786828429</v>
       </c>
       <c r="M8">
-        <v>1.054790770450796</v>
+        <v>1.05387721699805</v>
       </c>
       <c r="N8">
-        <v>1.018646747501666</v>
+        <v>1.018662387124488</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051935521049496</v>
+        <v>1.051212515631308</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046128164322973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044535682165585</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024466190393506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015291428511933</v>
+        <v>1.014168677281901</v>
       </c>
       <c r="D9">
-        <v>1.032591463581784</v>
+        <v>1.030872040498847</v>
       </c>
       <c r="E9">
-        <v>1.028897049482304</v>
+        <v>1.028064305547999</v>
       </c>
       <c r="F9">
-        <v>1.037246345399261</v>
+        <v>1.036608566142271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055325001028063</v>
+        <v>1.054401498906322</v>
       </c>
       <c r="J9">
-        <v>1.040315526842181</v>
+        <v>1.039230836189874</v>
       </c>
       <c r="K9">
-        <v>1.04517700645491</v>
+        <v>1.043483338503737</v>
       </c>
       <c r="L9">
-        <v>1.041538066025892</v>
+        <v>1.040717896339015</v>
       </c>
       <c r="M9">
-        <v>1.049762707521887</v>
+        <v>1.049134360248647</v>
       </c>
       <c r="N9">
-        <v>1.016819778310564</v>
+        <v>1.017371357061167</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047956197614356</v>
+        <v>1.047458907785074</v>
       </c>
       <c r="Q9">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043033977123337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041847110555816</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023657754926849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008894096276849</v>
+        <v>1.008151656994626</v>
       </c>
       <c r="D10">
-        <v>1.028313794240337</v>
+        <v>1.027021124682898</v>
       </c>
       <c r="E10">
-        <v>1.023969139602589</v>
+        <v>1.023446403366432</v>
       </c>
       <c r="F10">
-        <v>1.032636929056072</v>
+        <v>1.032221634337984</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05330997761277</v>
+        <v>1.052641824665992</v>
       </c>
       <c r="J10">
-        <v>1.036759226492076</v>
+        <v>1.036045545227259</v>
       </c>
       <c r="K10">
-        <v>1.042189984067342</v>
+        <v>1.040919061491689</v>
       </c>
       <c r="L10">
-        <v>1.037918702137087</v>
+        <v>1.037404848100112</v>
       </c>
       <c r="M10">
-        <v>1.046440898784184</v>
+        <v>1.046032507942481</v>
       </c>
       <c r="N10">
-        <v>1.015587114867893</v>
+        <v>1.016625319486739</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045378242165849</v>
+        <v>1.045055050116989</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040938673975491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040052396311706</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023112925644673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006695671938747</v>
+        <v>1.00610494989256</v>
       </c>
       <c r="D11">
-        <v>1.026929373205097</v>
+        <v>1.025794696755223</v>
       </c>
       <c r="E11">
-        <v>1.022673949563356</v>
+        <v>1.022267448251258</v>
       </c>
       <c r="F11">
-        <v>1.031896022183601</v>
+        <v>1.031565849841411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052804976700091</v>
+        <v>1.052235076768583</v>
       </c>
       <c r="J11">
-        <v>1.035792531815021</v>
+        <v>1.035225942886993</v>
       </c>
       <c r="K11">
-        <v>1.041360703192391</v>
+        <v>1.040246023728951</v>
       </c>
       <c r="L11">
-        <v>1.037180572088222</v>
+        <v>1.036781305705249</v>
       </c>
       <c r="M11">
-        <v>1.04624049227096</v>
+        <v>1.045916060594779</v>
       </c>
       <c r="N11">
-        <v>1.01536517050877</v>
+        <v>1.016708394745093</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045652270062893</v>
+        <v>1.045395648635188</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040384948332773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039612363493132</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023034794973137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006092027333017</v>
+        <v>1.005533936716562</v>
       </c>
       <c r="D12">
-        <v>1.026579457201421</v>
+        <v>1.025478916808352</v>
       </c>
       <c r="E12">
-        <v>1.02249700670343</v>
+        <v>1.022109908076536</v>
       </c>
       <c r="F12">
-        <v>1.032077445350156</v>
+        <v>1.031762832584809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052750010871878</v>
+        <v>1.052201975749279</v>
       </c>
       <c r="J12">
-        <v>1.035640780846211</v>
+        <v>1.035105923039732</v>
       </c>
       <c r="K12">
-        <v>1.04121455835966</v>
+        <v>1.040133735980393</v>
       </c>
       <c r="L12">
-        <v>1.037205529120206</v>
+        <v>1.036825431897689</v>
       </c>
       <c r="M12">
-        <v>1.0466148575163</v>
+        <v>1.046305798414928</v>
       </c>
       <c r="N12">
-        <v>1.015399241087192</v>
+        <v>1.016833030760272</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046272259986991</v>
+        <v>1.046027879564347</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040281620600767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039532974982287</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023055254719147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006693146747544</v>
+        <v>1.006064007524689</v>
       </c>
       <c r="D13">
-        <v>1.027021899151004</v>
+        <v>1.02585201917773</v>
       </c>
       <c r="E13">
-        <v>1.023185893609005</v>
+        <v>1.022733712132863</v>
       </c>
       <c r="F13">
-        <v>1.033005599841804</v>
+        <v>1.032646260094688</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053054273942476</v>
+        <v>1.052463390981958</v>
       </c>
       <c r="J13">
-        <v>1.036125321633654</v>
+        <v>1.035522235571317</v>
       </c>
       <c r="K13">
-        <v>1.041606728801041</v>
+        <v>1.040457717718836</v>
       </c>
       <c r="L13">
-        <v>1.037839383510078</v>
+        <v>1.03739533968634</v>
       </c>
       <c r="M13">
-        <v>1.047484647151284</v>
+        <v>1.047131615121931</v>
       </c>
       <c r="N13">
-        <v>1.015643287078829</v>
+        <v>1.016968528148746</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04723470499496</v>
+        <v>1.046955623298275</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040556419720871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039759315799551</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023158862471634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007657495373872</v>
+        <v>1.00693301054227</v>
       </c>
       <c r="D14">
-        <v>1.027690072488767</v>
+        <v>1.026426120752405</v>
       </c>
       <c r="E14">
-        <v>1.024055811392873</v>
+        <v>1.023521502297306</v>
       </c>
       <c r="F14">
-        <v>1.033988739319971</v>
+        <v>1.033572002185821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053428552114803</v>
+        <v>1.052779158577359</v>
       </c>
       <c r="J14">
-        <v>1.036750351361523</v>
+        <v>1.036055431845929</v>
       </c>
       <c r="K14">
-        <v>1.042124338255636</v>
+        <v>1.040882651634097</v>
       </c>
       <c r="L14">
-        <v>1.038554288677628</v>
+        <v>1.038029469855841</v>
       </c>
       <c r="M14">
-        <v>1.048313101022391</v>
+        <v>1.047903581897081</v>
       </c>
       <c r="N14">
-        <v>1.015908344707428</v>
+        <v>1.017069775463485</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048061809551237</v>
+        <v>1.047738116406951</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040923795592355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040061301300249</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023269640010378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008162975298482</v>
+        <v>1.007392790744035</v>
       </c>
       <c r="D15">
-        <v>1.028034341756439</v>
+        <v>1.026724905739001</v>
       </c>
       <c r="E15">
-        <v>1.024469792742129</v>
+        <v>1.023897356958268</v>
       </c>
       <c r="F15">
-        <v>1.034412011211435</v>
+        <v>1.033968367828494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053604757975212</v>
+        <v>1.052927015671373</v>
       </c>
       <c r="J15">
-        <v>1.037051005012424</v>
+        <v>1.036311973984352</v>
       </c>
       <c r="K15">
-        <v>1.042377150471775</v>
+        <v>1.04109060512511</v>
       </c>
       <c r="L15">
-        <v>1.038875092297453</v>
+        <v>1.03831274457579</v>
       </c>
       <c r="M15">
-        <v>1.048644400845136</v>
+        <v>1.048208381443878</v>
       </c>
       <c r="N15">
-        <v>1.016023409396525</v>
+        <v>1.017103553182527</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048360986740891</v>
+        <v>1.048016356155329</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041108365790785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040214725432459</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023318241181686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010755237734431</v>
+        <v>1.009779229602026</v>
       </c>
       <c r="D16">
-        <v>1.029760864532036</v>
+        <v>1.028241305470058</v>
       </c>
       <c r="E16">
-        <v>1.026427913191267</v>
+        <v>1.02568947065095</v>
       </c>
       <c r="F16">
-        <v>1.036221536217137</v>
+        <v>1.035659324893407</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054415663290144</v>
+        <v>1.053607495958306</v>
       </c>
       <c r="J16">
-        <v>1.038473098231746</v>
+        <v>1.037534591102904</v>
       </c>
       <c r="K16">
-        <v>1.043577630199068</v>
+        <v>1.042083475523548</v>
       </c>
       <c r="L16">
-        <v>1.040300526961831</v>
+        <v>1.039574521376895</v>
       </c>
       <c r="M16">
-        <v>1.049931360434158</v>
+        <v>1.049378387045221</v>
       </c>
       <c r="N16">
-        <v>1.016502129704642</v>
+        <v>1.01721692369693</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049339724742265</v>
+        <v>1.048902641076752</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041960275537819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040920148925143</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023521426225787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012242376585767</v>
+        <v>1.011167778362787</v>
       </c>
       <c r="D17">
-        <v>1.030739018346108</v>
+        <v>1.029114063676178</v>
       </c>
       <c r="E17">
-        <v>1.02747779175353</v>
+        <v>1.026662108513984</v>
       </c>
       <c r="F17">
-        <v>1.037091202703858</v>
+        <v>1.03647304922834</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054840580528688</v>
+        <v>1.053967743612364</v>
       </c>
       <c r="J17">
-        <v>1.039238093512973</v>
+        <v>1.038203458170674</v>
       </c>
       <c r="K17">
-        <v>1.044228724563146</v>
+        <v>1.04263017401866</v>
       </c>
       <c r="L17">
-        <v>1.041020598585775</v>
+        <v>1.040218264435852</v>
       </c>
       <c r="M17">
-        <v>1.050478709078137</v>
+        <v>1.049870430490201</v>
       </c>
       <c r="N17">
-        <v>1.016731178174565</v>
+        <v>1.017280678619122</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049644184651147</v>
+        <v>1.049163339026133</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042423182331818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041309492815143</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023620815510373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012894676204384</v>
+        <v>1.011794930090435</v>
       </c>
       <c r="D18">
-        <v>1.03113862997722</v>
+        <v>1.029482245850452</v>
       </c>
       <c r="E18">
-        <v>1.027799512245685</v>
+        <v>1.026967992351327</v>
       </c>
       <c r="F18">
-        <v>1.037163483020285</v>
+        <v>1.036532528354647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054954167322766</v>
+        <v>1.054062524807125</v>
       </c>
       <c r="J18">
-        <v>1.039479235867091</v>
+        <v>1.038419627285236</v>
       </c>
       <c r="K18">
-        <v>1.044440677898921</v>
+        <v>1.042810768874044</v>
       </c>
       <c r="L18">
-        <v>1.04115504363327</v>
+        <v>1.040336911803477</v>
       </c>
       <c r="M18">
-        <v>1.050370144251253</v>
+        <v>1.049749112461889</v>
       </c>
       <c r="N18">
-        <v>1.016751304007687</v>
+        <v>1.017257791817674</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049322443023212</v>
+        <v>1.048831415086171</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042561497225409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041424496872229</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023628455219469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012798939988438</v>
+        <v>1.0117322482404</v>
       </c>
       <c r="D19">
-        <v>1.031028638759495</v>
+        <v>1.029401962470877</v>
       </c>
       <c r="E19">
-        <v>1.027460531795901</v>
+        <v>1.026661701882893</v>
       </c>
       <c r="F19">
-        <v>1.036504100571626</v>
+        <v>1.035894566938573</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054794139479507</v>
+        <v>1.053921009932171</v>
       </c>
       <c r="J19">
-        <v>1.039255134377872</v>
+        <v>1.038227155379347</v>
       </c>
       <c r="K19">
-        <v>1.0442706504604</v>
+        <v>1.042669842171485</v>
       </c>
       <c r="L19">
-        <v>1.04075942231025</v>
+        <v>1.03997339592779</v>
       </c>
       <c r="M19">
-        <v>1.049659802583799</v>
+        <v>1.049059819294215</v>
       </c>
       <c r="N19">
-        <v>1.016593362331737</v>
+        <v>1.017143028471056</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048437955496238</v>
+        <v>1.047963417377778</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042447626837993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041331828583507</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023558157724675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010589220028057</v>
+        <v>1.009717872162909</v>
       </c>
       <c r="D20">
-        <v>1.029463741990077</v>
+        <v>1.028037401414166</v>
       </c>
       <c r="E20">
-        <v>1.025278541525671</v>
+        <v>1.024649116489101</v>
       </c>
       <c r="F20">
-        <v>1.033856495125435</v>
+        <v>1.033365053734789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053860922638246</v>
+        <v>1.053110400539591</v>
       </c>
       <c r="J20">
-        <v>1.037717960591737</v>
+        <v>1.036879258421206</v>
       </c>
       <c r="K20">
-        <v>1.043007563685769</v>
+        <v>1.041604534008937</v>
       </c>
       <c r="L20">
-        <v>1.038890999373817</v>
+        <v>1.038271959149846</v>
       </c>
       <c r="M20">
-        <v>1.047329044012959</v>
+        <v>1.046845537661506</v>
       </c>
       <c r="N20">
-        <v>1.015928978428733</v>
+        <v>1.016756696720877</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046070647671078</v>
+        <v>1.045688006283829</v>
       </c>
       <c r="Q20">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041558482306901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040582911689224</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023262636508656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005659151955035</v>
+        <v>1.005213682574652</v>
       </c>
       <c r="D21">
-        <v>1.026157174802633</v>
+        <v>1.025159906283983</v>
       </c>
       <c r="E21">
-        <v>1.021417727601137</v>
+        <v>1.021142730005961</v>
       </c>
       <c r="F21">
-        <v>1.030159441916335</v>
+        <v>1.029920336588725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052252949484825</v>
+        <v>1.051769367415887</v>
       </c>
       <c r="J21">
-        <v>1.034922157147626</v>
+        <v>1.034495027676063</v>
       </c>
       <c r="K21">
-        <v>1.04065937718779</v>
+        <v>1.039679795720272</v>
       </c>
       <c r="L21">
-        <v>1.036004386473073</v>
+        <v>1.03573432057046</v>
       </c>
       <c r="M21">
-        <v>1.044591108475015</v>
+        <v>1.044356197180049</v>
       </c>
       <c r="N21">
-        <v>1.014938262654709</v>
+        <v>1.016527779343062</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043863254118466</v>
+        <v>1.043677338417352</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039901459450045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039225610008176</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022853404760607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,105 +1679,123 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002520206326532</v>
+        <v>1.002344955880248</v>
       </c>
       <c r="D22">
-        <v>1.024055061959857</v>
+        <v>1.023330079557582</v>
       </c>
       <c r="E22">
-        <v>1.018990254912672</v>
+        <v>1.01894071672438</v>
       </c>
       <c r="F22">
-        <v>1.027870303900239</v>
+        <v>1.02779193766076</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051227325229592</v>
+        <v>1.050912617833809</v>
       </c>
       <c r="J22">
-        <v>1.033150182015516</v>
+        <v>1.032982570255245</v>
       </c>
       <c r="K22">
-        <v>1.03916458511115</v>
+        <v>1.038453110531656</v>
       </c>
       <c r="L22">
-        <v>1.034194670329506</v>
+        <v>1.03414606635638</v>
       </c>
       <c r="M22">
-        <v>1.042909150906439</v>
+        <v>1.04283222949813</v>
       </c>
       <c r="N22">
-        <v>1.014313002541382</v>
+        <v>1.016379016330192</v>
       </c>
       <c r="O22">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P22">
-        <v>1.042532102432044</v>
+        <v>1.042471224463243</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038831177265011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038343588335071</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022592184918652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00417757222318</v>
+        <v>1.003845786558226</v>
       </c>
       <c r="D23">
-        <v>1.025158101797388</v>
+        <v>1.024278695185513</v>
       </c>
       <c r="E23">
-        <v>1.020269677241703</v>
+        <v>1.020089172269445</v>
       </c>
       <c r="F23">
-        <v>1.029079295791336</v>
+        <v>1.028907678375704</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051765232290603</v>
+        <v>1.051353930678228</v>
       </c>
       <c r="J23">
-        <v>1.034080884971991</v>
+        <v>1.033763133560397</v>
       </c>
       <c r="K23">
-        <v>1.039945454669062</v>
+        <v>1.039082014149437</v>
       </c>
       <c r="L23">
-        <v>1.035146236316394</v>
+        <v>1.034969046603238</v>
       </c>
       <c r="M23">
-        <v>1.043795888797094</v>
+        <v>1.043627353637825</v>
       </c>
       <c r="N23">
-        <v>1.014638056155654</v>
+        <v>1.016408491999315</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043233893708398</v>
+        <v>1.043100509920968</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039373705323712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038777726083511</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022722059453743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010589046925367</v>
+        <v>1.009722258773776</v>
       </c>
       <c r="D24">
-        <v>1.029446393499759</v>
+        <v>1.028023619792574</v>
       </c>
       <c r="E24">
-        <v>1.025238192758627</v>
+        <v>1.024613569379633</v>
       </c>
       <c r="F24">
-        <v>1.033776146584187</v>
+        <v>1.033287873526154</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053835097254378</v>
+        <v>1.053086950840798</v>
       </c>
       <c r="J24">
-        <v>1.037685486279684</v>
+        <v>1.036851127316121</v>
       </c>
       <c r="K24">
-        <v>1.042975404832843</v>
+        <v>1.041575854901135</v>
       </c>
       <c r="L24">
-        <v>1.038836134143016</v>
+        <v>1.038221804143179</v>
       </c>
       <c r="M24">
-        <v>1.047234988527011</v>
+        <v>1.046754590824041</v>
       </c>
       <c r="N24">
-        <v>1.015902569557227</v>
+        <v>1.016735278069061</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045955695216141</v>
+        <v>1.045575495394982</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041508547153874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040532756421954</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023247534454423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017767267961052</v>
+        <v>1.01650024362054</v>
       </c>
       <c r="D25">
-        <v>1.034267373267486</v>
+        <v>1.032384858813039</v>
       </c>
       <c r="E25">
-        <v>1.030832712773528</v>
+        <v>1.029881712561105</v>
       </c>
       <c r="F25">
-        <v>1.039077685763113</v>
+        <v>1.038355243997525</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056113447356854</v>
+        <v>1.055092296096083</v>
       </c>
       <c r="J25">
-        <v>1.041711138440169</v>
+        <v>1.040484788661661</v>
       </c>
       <c r="K25">
-        <v>1.046356042113061</v>
+        <v>1.044500413635269</v>
       </c>
       <c r="L25">
-        <v>1.042970528803527</v>
+        <v>1.042033210031321</v>
       </c>
       <c r="M25">
-        <v>1.051098213134197</v>
+        <v>1.050385954348742</v>
       </c>
       <c r="N25">
-        <v>1.017314346559273</v>
+        <v>1.017685981934867</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049013149223429</v>
+        <v>1.048449450492265</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04389595322751</v>
+        <v>1.042597386174369</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023878726104698</v>
       </c>
     </row>
   </sheetData>
